--- a/precios_fuera_de_curva.xlsx
+++ b/precios_fuera_de_curva.xlsx
@@ -1,20 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Analisis de datos\Estrategia de Pricing\Pricing-Strategy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF5A695-D816-4B3B-B64B-17907A74934D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2304" yWindow="1584" windowWidth="20736" windowHeight="10656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$J$96</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="308">
   <si>
     <t>nombre_proyecto</t>
   </si>
@@ -943,8 +967,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1007,11 +1031,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1053,7 +1085,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1085,9 +1117,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1119,6 +1169,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1294,14 +1362,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J298"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1333,7 +1403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1356,13 +1426,13 @@
         <v>396445.66</v>
       </c>
       <c r="I2">
-        <v>5969.130000000005</v>
+        <v>5969.1300000000047</v>
       </c>
       <c r="J2">
-        <v>1.505661582977098</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>1.5056615829770981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1391,7 +1461,7 @@
         <v>13.79976772092901</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1417,10 +1487,10 @@
         <v>16256.19999999995</v>
       </c>
       <c r="J4">
-        <v>2.854598955906744</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>2.8545989559067442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1443,13 +1513,13 @@
         <v>559929.35</v>
       </c>
       <c r="I5">
-        <v>18559.42000000004</v>
+        <v>18559.420000000038</v>
       </c>
       <c r="J5">
-        <v>3.314600315200488</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>3.3146003152004879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1475,10 +1545,10 @@
         <v>3858.679999999993</v>
       </c>
       <c r="J6">
-        <v>1.036217892238042</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>1.0362178922380421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1504,10 +1574,10 @@
         <v>10515.62</v>
       </c>
       <c r="J7">
-        <v>2.842413685662285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>2.8424136856622848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1533,13 +1603,13 @@
         <v>729430.85</v>
       </c>
       <c r="I8">
-        <v>67353.15000000002</v>
+        <v>67353.150000000023</v>
       </c>
       <c r="J8">
-        <v>9.233657995134156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>9.2336579951341555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1565,13 +1635,13 @@
         <v>715288.03</v>
       </c>
       <c r="I9">
-        <v>50270.60999999999</v>
+        <v>50270.609999999993</v>
       </c>
       <c r="J9">
-        <v>7.028023382412814</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>7.0280233824128144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1603,7 +1673,7 @@
         <v>1.249461439034897</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1620,7 +1690,7 @@
         <v>6</v>
       </c>
       <c r="F11">
-        <v>562278.4</v>
+        <v>562278.40000000002</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1632,10 +1702,10 @@
         <v>22231.80000000005</v>
       </c>
       <c r="J11">
-        <v>4.116644748805019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>4.1166447488050188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1658,16 +1728,16 @@
         <v>7</v>
       </c>
       <c r="H12">
-        <v>534803.4300000001</v>
+        <v>534803.43000000005</v>
       </c>
       <c r="I12">
-        <v>20853.67999999993</v>
+        <v>20853.679999999931</v>
       </c>
       <c r="J12">
-        <v>3.899316801315192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>3.8993168013151922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1693,10 +1763,10 @@
         <v>46533</v>
       </c>
       <c r="J13">
-        <v>8.235929203539822</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>8.2359292035398219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1725,7 +1795,7 @@
         <v>44.07121850043805</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1745,16 +1815,16 @@
         <v>14</v>
       </c>
       <c r="H15">
-        <v>555101.2</v>
+        <v>555101.19999999995</v>
       </c>
       <c r="I15">
         <v>29215.80000000005</v>
       </c>
       <c r="J15">
-        <v>5.263148413298341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>5.2631484132983406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1783,7 +1853,7 @@
         <v>3.740570377184913</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1806,13 +1876,13 @@
         <v>570900</v>
       </c>
       <c r="I17">
-        <v>14757.51000000001</v>
+        <v>14757.510000000009</v>
       </c>
       <c r="J17">
-        <v>2.584955333683659</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>2.5849553336836588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1841,7 +1911,7 @@
         <v>1.248741188318228</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1864,10 +1934,10 @@
         <v>246600</v>
       </c>
       <c r="J19">
-        <v>85.47660311958406</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>85.476603119584055</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1893,7 +1963,7 @@
         <v>83.23761665470208</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1916,10 +1986,10 @@
         <v>6200</v>
       </c>
       <c r="J21">
-        <v>1.260162601626016</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>1.2601626016260159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1945,10 +2015,10 @@
         <v>123110</v>
       </c>
       <c r="J22">
-        <v>29.73025187761115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>29.730251877611149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1977,7 +2047,7 @@
         <v>65.84926184926185</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -2003,10 +2073,10 @@
         <v>10020</v>
       </c>
       <c r="J24">
-        <v>2.219859098763791</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>2.2198590987637909</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -2035,7 +2105,7 @@
         <v>27.49703195168534</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2061,10 +2131,10 @@
         <v>10000</v>
       </c>
       <c r="J26">
-        <v>2.497627254108597</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>2.4976272541085969</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2090,10 +2160,10 @@
         <v>13000</v>
       </c>
       <c r="J27">
-        <v>3.381366071893045</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>3.3813660718930452</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -2119,10 +2189,10 @@
         <v>96540</v>
       </c>
       <c r="J28">
-        <v>24.28923665274493</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>24.289236652744929</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -2148,10 +2218,10 @@
         <v>16180</v>
       </c>
       <c r="J29">
-        <v>4.109519455450574</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>4.1095194554505738</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -2177,10 +2247,10 @@
         <v>9100</v>
       </c>
       <c r="J30">
-        <v>2.220053671627226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>2.2200536716272259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -2209,7 +2279,7 @@
         <v>30.79849890545189</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -2238,7 +2308,7 @@
         <v>11.81510261008169</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2261,13 +2331,13 @@
         <v>519000</v>
       </c>
       <c r="I33">
-        <v>91823.40000000002</v>
+        <v>91823.400000000023</v>
       </c>
       <c r="J33">
-        <v>17.69236994219654</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>17.692369942196539</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -2293,10 +2363,10 @@
         <v>17140</v>
       </c>
       <c r="J34">
-        <v>3.777327221438646</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>3.7773272214386462</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -2322,10 +2392,10 @@
         <v>91380</v>
       </c>
       <c r="J35">
-        <v>21.52548760953547</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>21.525487609535471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -2354,7 +2424,7 @@
         <v>12.99448573483577</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2383,7 +2453,7 @@
         <v>13.89772968385317</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -2409,10 +2479,10 @@
         <v>15000</v>
       </c>
       <c r="J38">
-        <v>3.574833174451859</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>3.5748331744518591</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -2438,10 +2508,10 @@
         <v>23000</v>
       </c>
       <c r="J39">
-        <v>5.609756097560976</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>5.6097560975609762</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -2467,10 +2537,10 @@
         <v>62700</v>
       </c>
       <c r="J40">
-        <v>14.48036951501155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>14.480369515011549</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -2496,10 +2566,10 @@
         <v>8900</v>
       </c>
       <c r="J41">
-        <v>1.654275092936803</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>1.6542750929368031</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -2525,10 +2595,10 @@
         <v>8900</v>
       </c>
       <c r="J42">
-        <v>1.654275092936803</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>1.6542750929368031</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -2554,10 +2624,10 @@
         <v>35900</v>
       </c>
       <c r="J43">
-        <v>6.866870696250957</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>6.8668706962509569</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -2583,10 +2653,10 @@
         <v>8500</v>
       </c>
       <c r="J44">
-        <v>1.625860749808722</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>1.6258607498087221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -2612,10 +2682,10 @@
         <v>8300</v>
       </c>
       <c r="J45">
-        <v>1.635467980295567</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>1.6354679802955669</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -2641,10 +2711,10 @@
         <v>8300</v>
       </c>
       <c r="J46">
-        <v>1.635467980295567</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>1.6354679802955669</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -2673,7 +2743,7 @@
         <v>5.15993907083016</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -2699,10 +2769,10 @@
         <v>23600</v>
       </c>
       <c r="J48">
-        <v>4.853969559851913</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>4.8539695598519126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -2728,10 +2798,10 @@
         <v>27100</v>
       </c>
       <c r="J49">
-        <v>5.31581012161632</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>5.3158101216163196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -2757,10 +2827,10 @@
         <v>27100</v>
       </c>
       <c r="J50">
-        <v>5.31581012161632</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>5.3158101216163196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -2786,10 +2856,10 @@
         <v>27200</v>
       </c>
       <c r="J51">
-        <v>5.501618122977346</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>5.5016181229773462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2815,10 +2885,10 @@
         <v>27200</v>
       </c>
       <c r="J52">
-        <v>5.501618122977346</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>5.5016181229773462</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -2847,7 +2917,7 @@
         <v>3.360467543310373</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -2873,10 +2943,10 @@
         <v>28200</v>
       </c>
       <c r="J54">
-        <v>5.423076923076922</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>5.4230769230769216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2902,10 +2972,10 @@
         <v>59272</v>
       </c>
       <c r="J55">
-        <v>12.12284835394986</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>12.122848353949861</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -2934,7 +3004,7 @@
         <v>13.28341062843041</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -2960,10 +3030,10 @@
         <v>7400</v>
       </c>
       <c r="J57">
-        <v>1.358545988617588</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>1.3585459886175879</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -2989,10 +3059,10 @@
         <v>7400</v>
       </c>
       <c r="J58">
-        <v>1.358545988617588</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>1.3585459886175879</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -3018,10 +3088,10 @@
         <v>7300</v>
       </c>
       <c r="J59">
-        <v>1.379440665154951</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>1.3794406651549509</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -3047,10 +3117,10 @@
         <v>7300</v>
       </c>
       <c r="J60">
-        <v>1.379440665154951</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>1.3794406651549509</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -3079,7 +3149,7 @@
         <v>15.82181259600614</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -3105,10 +3175,10 @@
         <v>84400</v>
       </c>
       <c r="J62">
-        <v>19.65533302282254</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>19.655333022822539</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -3134,10 +3204,10 @@
         <v>7000</v>
       </c>
       <c r="J63">
-        <v>1.362397820163488</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>1.3623978201634881</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -3163,10 +3233,10 @@
         <v>26800</v>
       </c>
       <c r="J64">
-        <v>5.156821243024822</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>5.1568212430248224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -3192,10 +3262,10 @@
         <v>26700</v>
       </c>
       <c r="J65">
-        <v>5.291319857312723</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>5.2913198573127227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -3221,10 +3291,10 @@
         <v>26700</v>
       </c>
       <c r="J66">
-        <v>5.455659991826726</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>5.4556599918267263</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -3250,10 +3320,10 @@
         <v>26700</v>
       </c>
       <c r="J67">
-        <v>5.455659991826726</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+        <v>5.4556599918267263</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -3267,7 +3337,7 @@
         <v>3</v>
       </c>
       <c r="F68">
-        <v>655555.5600000001</v>
+        <v>655555.56000000006</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -3276,13 +3346,13 @@
         <v>581124.88</v>
       </c>
       <c r="I68">
-        <v>74430.68000000005</v>
+        <v>74430.680000000051</v>
       </c>
       <c r="J68">
         <v>12.80803534001161</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -3296,7 +3366,7 @@
         <v>9</v>
       </c>
       <c r="F69">
-        <v>636170.67</v>
+        <v>636170.67000000004</v>
       </c>
       <c r="G69">
         <v>8</v>
@@ -3305,13 +3375,13 @@
         <v>564116.35</v>
       </c>
       <c r="I69">
-        <v>72054.32000000007</v>
+        <v>72054.320000000065</v>
       </c>
       <c r="J69">
-        <v>12.77295366461193</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+        <v>12.772953664611929</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -3331,16 +3401,16 @@
         <v>11</v>
       </c>
       <c r="H70">
-        <v>555612.08</v>
+        <v>555612.07999999996</v>
       </c>
       <c r="I70">
-        <v>71681.79000000004</v>
+        <v>71681.790000000037</v>
       </c>
       <c r="J70">
         <v>12.90140955898584</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -3363,13 +3433,13 @@
         <v>731437.03</v>
       </c>
       <c r="I71">
-        <v>89362.96999999997</v>
+        <v>89362.969999999972</v>
       </c>
       <c r="J71">
-        <v>12.21745226653345</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+        <v>12.217452266533449</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -3392,13 +3462,13 @@
         <v>720627.61</v>
       </c>
       <c r="I72">
-        <v>65972.39000000001</v>
+        <v>65972.390000000014</v>
       </c>
       <c r="J72">
-        <v>9.154851838108176</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <v>9.1548518381081756</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -3412,22 +3482,22 @@
         <v>12</v>
       </c>
       <c r="F73">
-        <v>755555.5600000001</v>
+        <v>755555.56</v>
       </c>
       <c r="G73">
         <v>11</v>
       </c>
       <c r="H73">
-        <v>706215.0600000001</v>
+        <v>706215.06</v>
       </c>
       <c r="I73">
         <v>49340.5</v>
       </c>
       <c r="J73">
-        <v>6.986611132308619</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+        <v>6.9866111323086191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -3453,10 +3523,10 @@
         <v>25691.14000000001</v>
       </c>
       <c r="J74">
-        <v>6.894483128587813</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+        <v>6.8944831285878134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -3479,13 +3549,13 @@
         <v>365501.56</v>
       </c>
       <c r="I75">
-        <v>14920.65999999997</v>
+        <v>14920.659999999971</v>
       </c>
       <c r="J75">
-        <v>4.082242494395913</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>4.0822424943959126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -3514,7 +3584,7 @@
         <v>2.174733337249104</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -3540,10 +3610,10 @@
         <v>325679.37</v>
       </c>
       <c r="J77">
-        <v>89.83762826878518</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+        <v>89.837628268785181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -3566,13 +3636,13 @@
         <v>623666.98</v>
       </c>
       <c r="I78">
-        <v>18994.93000000005</v>
+        <v>18994.930000000051</v>
       </c>
       <c r="J78">
-        <v>3.045684733862301</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>3.0456847338623012</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -3592,16 +3662,16 @@
         <v>8</v>
       </c>
       <c r="H79">
-        <v>583545.6899999999</v>
+        <v>583545.68999999994</v>
       </c>
       <c r="I79">
-        <v>30623.82000000007</v>
+        <v>30623.820000000069</v>
       </c>
       <c r="J79">
         <v>5.247887273402716</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -3615,7 +3685,7 @@
         <v>12</v>
       </c>
       <c r="F80">
-        <v>633333.33</v>
+        <v>633333.32999999996</v>
       </c>
       <c r="G80">
         <v>11</v>
@@ -3624,13 +3694,13 @@
         <v>607837.87</v>
       </c>
       <c r="I80">
-        <v>25495.45999999996</v>
+        <v>25495.459999999959</v>
       </c>
       <c r="J80">
-        <v>4.194450734041951</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+        <v>4.1944507340419506</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -3650,16 +3720,16 @@
         <v>15</v>
       </c>
       <c r="H81">
-        <v>633164.4399999999</v>
+        <v>633164.43999999994</v>
       </c>
       <c r="I81">
-        <v>58638.07000000007</v>
+        <v>58638.070000000072</v>
       </c>
       <c r="J81">
-        <v>9.26111232652296</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+        <v>9.2611123265229605</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -3682,10 +3752,10 @@
         <v>54700</v>
       </c>
       <c r="J82">
-        <v>9.588080631025417</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
+        <v>9.5880806310254165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -3708,10 +3778,10 @@
         <v>53800</v>
       </c>
       <c r="J83">
-        <v>9.572953736654805</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
+        <v>9.5729537366548048</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -3734,10 +3804,10 @@
         <v>53000</v>
       </c>
       <c r="J84">
-        <v>9.577159378388146</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+        <v>9.5771593783881457</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -3763,7 +3833,7 @@
         <v>9.561387410534044</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -3786,10 +3856,10 @@
         <v>51400</v>
       </c>
       <c r="J86">
-        <v>9.584187954503076</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+        <v>9.5841879545030757</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -3812,10 +3882,10 @@
         <v>50600</v>
       </c>
       <c r="J87">
-        <v>9.588781504642789</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
+        <v>9.5887815046427889</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -3844,7 +3914,7 @@
         <v>1.161403876854344</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>18</v>
       </c>
@@ -3867,13 +3937,13 @@
         <v>513022.66</v>
       </c>
       <c r="I89">
-        <v>17077.34000000003</v>
+        <v>17077.340000000029</v>
       </c>
       <c r="J89">
         <v>3.328769142478039</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>18</v>
       </c>
@@ -3896,13 +3966,13 @@
         <v>501381.24</v>
       </c>
       <c r="I90">
-        <v>47618.76000000001</v>
+        <v>47618.760000000009</v>
       </c>
       <c r="J90">
-        <v>9.497515303923221</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
+        <v>9.4975153039232207</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -3925,13 +3995,13 @@
         <v>405685.92</v>
       </c>
       <c r="I91">
-        <v>64314.08000000002</v>
+        <v>64314.080000000024</v>
       </c>
       <c r="J91">
         <v>15.85317035405124</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -3954,13 +4024,13 @@
         <v>397193.73</v>
       </c>
       <c r="I92">
-        <v>24955.03000000003</v>
+        <v>24955.030000000032</v>
       </c>
       <c r="J92">
-        <v>6.282835834291752</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
+        <v>6.2828358342917516</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>18</v>
       </c>
@@ -3983,13 +4053,13 @@
         <v>386787.74</v>
       </c>
       <c r="I93">
-        <v>24212.26000000001</v>
+        <v>24212.260000000009</v>
       </c>
       <c r="J93">
-        <v>6.259831296617626</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
+        <v>6.2598312966176257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -4012,13 +4082,13 @@
         <v>393268.9</v>
       </c>
       <c r="I94">
-        <v>41866.98999999999</v>
+        <v>41866.989999999991</v>
       </c>
       <c r="J94">
-        <v>10.64589394177876</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
+        <v>10.645893941778761</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>18</v>
       </c>
@@ -4041,13 +4111,13 @@
         <v>438806.06</v>
       </c>
       <c r="I95">
-        <v>62012.83000000002</v>
+        <v>62012.830000000024</v>
       </c>
       <c r="J95">
-        <v>14.1321726504871</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+        <v>14.132172650487099</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -4070,13 +4140,13 @@
         <v>455360.99</v>
       </c>
       <c r="I96">
-        <v>39639.01000000001</v>
+        <v>39639.010000000009</v>
       </c>
       <c r="J96">
-        <v>8.704963945198733</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+        <v>8.7049639451987328</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -4099,13 +4169,13 @@
         <v>342581.77</v>
       </c>
       <c r="I97">
-        <v>40751.91999999998</v>
+        <v>40751.919999999976</v>
       </c>
       <c r="J97">
         <v>11.89553081006032</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -4134,7 +4204,7 @@
         <v>1.000615779248754</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -4157,13 +4227,13 @@
         <v>327901.11</v>
       </c>
       <c r="I99">
-        <v>62218.67999999999</v>
+        <v>62218.679999999993</v>
       </c>
       <c r="J99">
         <v>18.97483055180874</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>18</v>
       </c>
@@ -4192,7 +4262,7 @@
         <v>2.015801325688924</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>19</v>
       </c>
@@ -4218,10 +4288,10 @@
         <v>35119</v>
       </c>
       <c r="J101">
-        <v>5.810171398319105</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+        <v>5.8101713983191052</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -4250,7 +4320,7 @@
         <v>2.950499636026735</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -4276,10 +4346,10 @@
         <v>17285</v>
       </c>
       <c r="J103">
-        <v>2.857076740238252</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
+        <v>2.8570767402382522</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -4305,10 +4375,10 @@
         <v>69238</v>
       </c>
       <c r="J104">
-        <v>11.12660982139701</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
+        <v>11.126609821397009</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -4334,10 +4404,10 @@
         <v>17463</v>
       </c>
       <c r="J105">
-        <v>3.062394781144781</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10">
+        <v>3.0623947811447811</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -4363,10 +4433,10 @@
         <v>17286</v>
       </c>
       <c r="J106">
-        <v>2.941281565688792</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+        <v>2.9412815656887918</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -4392,10 +4462,10 @@
         <v>18928</v>
       </c>
       <c r="J107">
-        <v>2.880974124809741</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
+        <v>2.8809741248097409</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -4421,10 +4491,10 @@
         <v>133516</v>
       </c>
       <c r="J108">
-        <v>20.31733858020887</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
+        <v>20.317338580208869</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -4441,7 +4511,7 @@
         <v>3</v>
       </c>
       <c r="F109">
-        <v>529935.33</v>
+        <v>529935.32999999996</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -4450,13 +4520,13 @@
         <v>493083.36</v>
       </c>
       <c r="I109">
-        <v>36851.96999999997</v>
+        <v>36851.969999999972</v>
       </c>
       <c r="J109">
-        <v>7.473780903902329</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
+        <v>7.4737809039023286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -4482,13 +4552,13 @@
         <v>354432.09</v>
       </c>
       <c r="I110">
-        <v>33522.57999999996</v>
+        <v>33522.579999999958</v>
       </c>
       <c r="J110">
         <v>9.458110861237186</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -4514,13 +4584,13 @@
         <v>351195.27</v>
       </c>
       <c r="I111">
-        <v>33356.28999999998</v>
+        <v>33356.289999999979</v>
       </c>
       <c r="J111">
-        <v>9.497932588898472</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
+        <v>9.4979325888984718</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>20</v>
       </c>
@@ -4543,16 +4613,16 @@
         <v>6</v>
       </c>
       <c r="H112">
-        <v>654279.9399999999</v>
+        <v>654279.93999999994</v>
       </c>
       <c r="I112">
         <v>62815.95000000007</v>
       </c>
       <c r="J112">
-        <v>9.600775778025545</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
+        <v>9.6007757780255449</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>20</v>
       </c>
@@ -4569,7 +4639,7 @@
         <v>11</v>
       </c>
       <c r="F113">
-        <v>548010.67</v>
+        <v>548010.67000000004</v>
       </c>
       <c r="G113">
         <v>10</v>
@@ -4578,13 +4648,13 @@
         <v>485941.06</v>
       </c>
       <c r="I113">
-        <v>62069.61000000004</v>
+        <v>62069.610000000037</v>
       </c>
       <c r="J113">
         <v>12.7730737550764</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -4616,7 +4686,7 @@
         <v>10.6709420037261</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -4645,10 +4715,10 @@
         <v>43576.94</v>
       </c>
       <c r="J115">
-        <v>10.75971648649995</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
+        <v>10.759716486499951</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -4665,7 +4735,7 @@
         <v>8</v>
       </c>
       <c r="F116">
-        <v>581520.33</v>
+        <v>581520.32999999996</v>
       </c>
       <c r="G116">
         <v>7</v>
@@ -4674,13 +4744,13 @@
         <v>516231.46</v>
       </c>
       <c r="I116">
-        <v>65288.86999999994</v>
+        <v>65288.869999999937</v>
       </c>
       <c r="J116">
         <v>12.6472086765111</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -4706,13 +4776,13 @@
         <v>510558.59</v>
       </c>
       <c r="I117">
-        <v>64997.42999999999</v>
+        <v>64997.429999999993</v>
       </c>
       <c r="J117">
-        <v>12.73065056059482</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
+        <v>12.730650560594819</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -4738,13 +4808,13 @@
         <v>428873.39</v>
       </c>
       <c r="I118">
-        <v>78396.20999999996</v>
+        <v>78396.209999999963</v>
       </c>
       <c r="J118">
-        <v>18.2795696417537</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+        <v>18.279569641753699</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -4770,13 +4840,13 @@
         <v>412557.55</v>
       </c>
       <c r="I119">
-        <v>77558.01000000001</v>
+        <v>77558.010000000009</v>
       </c>
       <c r="J119">
-        <v>18.7993190283392</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
+        <v>18.799319028339202</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -4802,13 +4872,13 @@
         <v>419654.87</v>
       </c>
       <c r="I120">
-        <v>54241.85999999999</v>
+        <v>54241.859999999993</v>
       </c>
       <c r="J120">
         <v>12.92534982377304</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -4834,13 +4904,13 @@
         <v>584232.85</v>
       </c>
       <c r="I121">
-        <v>80459.77000000002</v>
+        <v>80459.770000000019</v>
       </c>
       <c r="J121">
-        <v>13.77186681645854</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
+        <v>13.771866816458539</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -4863,16 +4933,16 @@
         <v>8</v>
       </c>
       <c r="H122">
-        <v>570120.9399999999</v>
+        <v>570120.93999999994</v>
       </c>
       <c r="I122">
-        <v>79734.79000000004</v>
+        <v>79734.790000000037</v>
       </c>
       <c r="J122">
         <v>13.98559224995315</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -4898,13 +4968,13 @@
         <v>577400.98</v>
       </c>
       <c r="I123">
-        <v>69752.53000000003</v>
+        <v>69752.530000000028</v>
       </c>
       <c r="J123">
         <v>12.08043152264827</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -4927,16 +4997,16 @@
         <v>8</v>
       </c>
       <c r="H124">
-        <v>571953.8</v>
+        <v>571953.80000000005</v>
       </c>
       <c r="I124">
-        <v>69472.68999999994</v>
+        <v>69472.689999999944</v>
       </c>
       <c r="J124">
-        <v>12.14655624282939</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
+        <v>12.146556242829391</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>21</v>
       </c>
@@ -4959,13 +5029,13 @@
         <v>375062.11</v>
       </c>
       <c r="I125">
-        <v>36296.33000000002</v>
+        <v>36296.330000000024</v>
       </c>
       <c r="J125">
-        <v>9.677418494766112</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
+        <v>9.6774184947661119</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>21</v>
       </c>
@@ -4988,13 +5058,13 @@
         <v>367802.84</v>
       </c>
       <c r="I126">
-        <v>29037.06999999995</v>
+        <v>29037.069999999949</v>
       </c>
       <c r="J126">
-        <v>7.894737843786075</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
+        <v>7.8947378437860749</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>21</v>
       </c>
@@ -5023,7 +5093,7 @@
         <v>6.666667952379651</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>21</v>
       </c>
@@ -5046,13 +5116,13 @@
         <v>473480</v>
       </c>
       <c r="I128">
-        <v>5636.669999999984</v>
+        <v>5636.6699999999837</v>
       </c>
       <c r="J128">
-        <v>1.190476894483396</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10">
+        <v>1.1904768944833961</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>21</v>
       </c>
@@ -5078,10 +5148,10 @@
         <v>12958.40000000002</v>
       </c>
       <c r="J129">
-        <v>2.813852813852819</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
+        <v>2.8138528138528192</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>21</v>
       </c>
@@ -5104,13 +5174,13 @@
         <v>442478.33</v>
       </c>
       <c r="I130">
-        <v>5636.669999999984</v>
+        <v>5636.6699999999837</v>
       </c>
       <c r="J130">
-        <v>1.273886113247621</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10">
+        <v>1.2738861132476209</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>21</v>
       </c>
@@ -5130,16 +5200,16 @@
         <v>15</v>
       </c>
       <c r="H131">
-        <v>270222.22</v>
+        <v>270222.21999999997</v>
       </c>
       <c r="I131">
-        <v>25137.78000000003</v>
+        <v>25137.780000000032</v>
       </c>
       <c r="J131">
-        <v>9.302632477817713</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
+        <v>9.3026324778177134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>21</v>
       </c>
@@ -5159,16 +5229,16 @@
         <v>5</v>
       </c>
       <c r="H132">
-        <v>332160.29</v>
+        <v>332160.28999999998</v>
       </c>
       <c r="I132">
-        <v>50193.60000000003</v>
+        <v>50193.600000000028</v>
       </c>
       <c r="J132">
-        <v>15.11125848306552</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
+        <v>15.111258483065519</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>21</v>
       </c>
@@ -5191,13 +5261,13 @@
         <v>336183.33</v>
       </c>
       <c r="I133">
-        <v>39970.21999999997</v>
+        <v>39970.219999999972</v>
       </c>
       <c r="J133">
         <v>11.88941164929266</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>21</v>
       </c>
@@ -5217,16 +5287,16 @@
         <v>12</v>
       </c>
       <c r="H134">
-        <v>322222.22</v>
+        <v>322222.21999999997</v>
       </c>
       <c r="I134">
-        <v>35330.34000000003</v>
+        <v>35330.340000000033</v>
       </c>
       <c r="J134">
         <v>10.96458835147993</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>21</v>
       </c>
@@ -5249,13 +5319,13 @@
         <v>357552.56</v>
       </c>
       <c r="I135">
-        <v>6200.330000000016</v>
+        <v>6200.3300000000163</v>
       </c>
       <c r="J135">
-        <v>1.734103092423675</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
+        <v>1.7341030924236751</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>21</v>
       </c>
@@ -5278,13 +5348,13 @@
         <v>490122.3</v>
       </c>
       <c r="I136">
-        <v>61654.59000000003</v>
+        <v>61654.590000000033</v>
       </c>
       <c r="J136">
-        <v>12.5794296648</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10">
+        <v>12.579429664799999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>21</v>
       </c>
@@ -5298,7 +5368,7 @@
         <v>10</v>
       </c>
       <c r="F137">
-        <v>539846.58</v>
+        <v>539846.57999999996</v>
       </c>
       <c r="G137">
         <v>9</v>
@@ -5307,13 +5377,13 @@
         <v>496938.89</v>
       </c>
       <c r="I137">
-        <v>42907.68999999994</v>
+        <v>42907.689999999937</v>
       </c>
       <c r="J137">
-        <v>8.634399694497635</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10">
+        <v>8.6343996944976347</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>21</v>
       </c>
@@ -5336,13 +5406,13 @@
         <v>474870.12</v>
       </c>
       <c r="I138">
-        <v>25923.44</v>
+        <v>25923.439999999999</v>
       </c>
       <c r="J138">
-        <v>5.45905899491002</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10">
+        <v>5.4590589949100199</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>21</v>
       </c>
@@ -5362,16 +5432,16 @@
         <v>11</v>
       </c>
       <c r="H139">
-        <v>474280.96</v>
+        <v>474280.96000000002</v>
       </c>
       <c r="I139">
         <v>11783.37</v>
       </c>
       <c r="J139">
-        <v>2.484470386498331</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10">
+        <v>2.4844703864983311</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>21</v>
       </c>
@@ -5400,7 +5470,7 @@
         <v>2.564103066264162</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>22</v>
       </c>
@@ -5426,10 +5496,10 @@
         <v>12460</v>
       </c>
       <c r="J141">
-        <v>3.157983630999903</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10">
+        <v>3.1579836309999032</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>22</v>
       </c>
@@ -5452,13 +5522,13 @@
         <v>372222.22</v>
       </c>
       <c r="I142">
-        <v>38888.89000000001</v>
+        <v>38888.890000000007</v>
       </c>
       <c r="J142">
         <v>10.44776155491201</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>22</v>
       </c>
@@ -5487,7 +5557,7 @@
         <v>4.586279081953176</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>22</v>
       </c>
@@ -5501,7 +5571,7 @@
         <v>5</v>
       </c>
       <c r="F144">
-        <v>596666.67</v>
+        <v>596666.67000000004</v>
       </c>
       <c r="G144">
         <v>4</v>
@@ -5513,10 +5583,10 @@
         <v>18634.45000000007</v>
       </c>
       <c r="J144">
-        <v>3.223773581341204</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10">
+        <v>3.2237735813412041</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>22</v>
       </c>
@@ -5530,7 +5600,7 @@
         <v>9</v>
       </c>
       <c r="F145">
-        <v>569355.5600000001</v>
+        <v>569355.56000000006</v>
       </c>
       <c r="G145">
         <v>8</v>
@@ -5539,13 +5609,13 @@
         <v>524300</v>
       </c>
       <c r="I145">
-        <v>45055.56000000006</v>
+        <v>45055.560000000063</v>
       </c>
       <c r="J145">
-        <v>8.593469387755112</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10">
+        <v>8.5934693877551123</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>22</v>
       </c>
@@ -5574,7 +5644,7 @@
         <v>3.686540729695408</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>22</v>
       </c>
@@ -5597,13 +5667,13 @@
         <v>507411.11</v>
       </c>
       <c r="I147">
-        <v>91477.78000000003</v>
+        <v>91477.780000000028</v>
       </c>
       <c r="J147">
-        <v>18.02833603702529</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10">
+        <v>18.028336037025291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>22</v>
       </c>
@@ -5626,13 +5696,13 @@
         <v>401000</v>
       </c>
       <c r="I148">
-        <v>41222.21999999997</v>
+        <v>41222.219999999972</v>
       </c>
       <c r="J148">
-        <v>10.279855361596</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10">
+        <v>10.279855361596001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>22</v>
       </c>
@@ -5658,10 +5728,10 @@
         <v>16261.12</v>
       </c>
       <c r="J149">
-        <v>3.891575257642349</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10">
+        <v>3.8915752576423488</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>22</v>
       </c>
@@ -5687,10 +5757,10 @@
         <v>68210</v>
       </c>
       <c r="J150">
-        <v>15.05739514348786</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
+        <v>15.057395143487859</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>22</v>
       </c>
@@ -5719,7 +5789,7 @@
         <v>2.837857466063352</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>22</v>
       </c>
@@ -5742,13 +5812,13 @@
         <v>454543.33</v>
       </c>
       <c r="I152">
-        <v>12123.33999999997</v>
+        <v>12123.339999999969</v>
       </c>
       <c r="J152">
-        <v>2.667147266246315</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10">
+        <v>2.6671472662463152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>22</v>
       </c>
@@ -5774,10 +5844,10 @@
         <v>45657.77999999997</v>
       </c>
       <c r="J153">
-        <v>9.908850205407033</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10">
+        <v>9.9088502054070329</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>22</v>
       </c>
@@ -5800,13 +5870,13 @@
         <v>386324.44</v>
       </c>
       <c r="I154">
-        <v>5656.669999999984</v>
+        <v>5656.6699999999837</v>
       </c>
       <c r="J154">
-        <v>1.464227839170616</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10">
+        <v>1.4642278391706161</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>22</v>
       </c>
@@ -5832,10 +5902,10 @@
         <v>20946.66999999998</v>
       </c>
       <c r="J155">
-        <v>5.870374418474296</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10">
+        <v>5.8703744184742961</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>22</v>
       </c>
@@ -5861,10 +5931,10 @@
         <v>19680</v>
       </c>
       <c r="J156">
-        <v>5.515385908861611</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10">
+        <v>5.5153859088616111</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>22</v>
       </c>
@@ -5887,13 +5957,13 @@
         <v>376500</v>
       </c>
       <c r="I157">
-        <v>6015.559999999998</v>
+        <v>6015.5599999999977</v>
       </c>
       <c r="J157">
         <v>1.597758300132802</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>22</v>
       </c>
@@ -5916,13 +5986,13 @@
         <v>350000</v>
       </c>
       <c r="I158">
-        <v>4105.559999999998</v>
+        <v>4105.5599999999977</v>
       </c>
       <c r="J158">
-        <v>1.173017142857142</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10">
+        <v>1.1730171428571421</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>22</v>
       </c>
@@ -5951,7 +6021,7 @@
         <v>11.80421040206094</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>22</v>
       </c>
@@ -5974,13 +6044,13 @@
         <v>321195.56</v>
       </c>
       <c r="I160">
-        <v>9248.880000000005</v>
+        <v>9248.8800000000047</v>
       </c>
       <c r="J160">
-        <v>2.879516765424779</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10">
+        <v>2.8795167654247789</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>22</v>
       </c>
@@ -6006,10 +6076,10 @@
         <v>31000</v>
       </c>
       <c r="J161">
-        <v>6.224899598393574</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10">
+        <v>6.2248995983935744</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>22</v>
       </c>
@@ -6023,7 +6093,7 @@
         <v>7</v>
       </c>
       <c r="F162">
-        <v>526696.67</v>
+        <v>526696.67000000004</v>
       </c>
       <c r="G162">
         <v>6</v>
@@ -6035,10 +6105,10 @@
         <v>10030.00000000006</v>
       </c>
       <c r="J162">
-        <v>1.941290310056203</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10">
+        <v>1.9412903100562029</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>22</v>
       </c>
@@ -6061,13 +6131,13 @@
         <v>450777.78</v>
       </c>
       <c r="I163">
-        <v>77063.32999999996</v>
+        <v>77063.329999999958</v>
       </c>
       <c r="J163">
-        <v>17.095636346583</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10">
+        <v>17.095636346582999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>22</v>
       </c>
@@ -6096,7 +6166,7 @@
         <v>4.951767920958587</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>22</v>
       </c>
@@ -6110,7 +6180,7 @@
         <v>16</v>
       </c>
       <c r="F165">
-        <v>561666.67</v>
+        <v>561666.67000000004</v>
       </c>
       <c r="G165">
         <v>15</v>
@@ -6119,13 +6189,13 @@
         <v>499255.56</v>
       </c>
       <c r="I165">
-        <v>62411.11000000004</v>
+        <v>62411.110000000037</v>
       </c>
       <c r="J165">
         <v>12.50083424208637</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>23</v>
       </c>
@@ -6151,10 +6221,10 @@
         <v>89273.25</v>
       </c>
       <c r="J166">
-        <v>34.8001638163822</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10">
+        <v>34.800163816382202</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>23</v>
       </c>
@@ -6180,10 +6250,10 @@
         <v>20193.91999999998</v>
       </c>
       <c r="J167">
-        <v>5.839694854058664</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10">
+        <v>5.8396948540586644</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>23</v>
       </c>
@@ -6206,13 +6276,13 @@
         <v>365998.29</v>
       </c>
       <c r="I168">
-        <v>25326.29000000004</v>
+        <v>25326.290000000041</v>
       </c>
       <c r="J168">
-        <v>6.91978369625717</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10">
+        <v>6.9197836962571699</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>23</v>
       </c>
@@ -6235,13 +6305,13 @@
         <v>205234.56</v>
       </c>
       <c r="I169">
-        <v>45282.67000000001</v>
+        <v>45282.670000000013</v>
       </c>
       <c r="J169">
-        <v>22.06386195385417</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10">
+        <v>22.063861953854168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>23</v>
       </c>
@@ -6264,13 +6334,13 @@
         <v>251113.7</v>
       </c>
       <c r="I170">
-        <v>90813.07000000001</v>
+        <v>90813.07</v>
       </c>
       <c r="J170">
-        <v>36.16412406013691</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10">
+        <v>36.164124060136913</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>23</v>
       </c>
@@ -6293,13 +6363,13 @@
         <v>341926.77</v>
       </c>
       <c r="I171">
-        <v>19416.07000000001</v>
+        <v>19416.070000000011</v>
       </c>
       <c r="J171">
-        <v>5.678429331520316</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10">
+        <v>5.6784293315203156</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>23</v>
       </c>
@@ -6322,13 +6392,13 @@
         <v>361372.22</v>
       </c>
       <c r="I172">
-        <v>3978.420000000042</v>
+        <v>3978.4200000000419</v>
       </c>
       <c r="J172">
-        <v>1.100920264429856</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10">
+        <v>1.1009202644298559</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>23</v>
       </c>
@@ -6354,10 +6424,10 @@
         <v>21607.94</v>
       </c>
       <c r="J173">
-        <v>5.914301942922559</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10">
+        <v>5.9143019429225587</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>23</v>
       </c>
@@ -6380,13 +6450,13 @@
         <v>389188.51</v>
       </c>
       <c r="I174">
-        <v>75294.22999999998</v>
+        <v>75294.229999999981</v>
       </c>
       <c r="J174">
         <v>19.34646785949564</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>23</v>
       </c>
@@ -6409,13 +6479,13 @@
         <v>197110.69</v>
       </c>
       <c r="I175">
-        <v>42777.17999999999</v>
+        <v>42777.179999999993</v>
       </c>
       <c r="J175">
         <v>21.70211062626791</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>23</v>
       </c>
@@ -6438,13 +6508,13 @@
         <v>240459.03</v>
       </c>
       <c r="I176">
-        <v>86732.86000000002</v>
+        <v>86732.860000000015</v>
       </c>
       <c r="J176">
-        <v>36.06970384934183</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10">
+        <v>36.069703849341828</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>23</v>
       </c>
@@ -6467,13 +6537,13 @@
         <v>327191.89</v>
       </c>
       <c r="I177">
-        <v>18607.47999999998</v>
+        <v>18607.479999999981</v>
       </c>
       <c r="J177">
-        <v>5.687023599515251</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10">
+        <v>5.6870235995152507</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>23</v>
       </c>
@@ -6496,13 +6566,13 @@
         <v>349440.34</v>
       </c>
       <c r="I178">
-        <v>20927.44</v>
+        <v>20927.439999999999</v>
       </c>
       <c r="J178">
         <v>5.988844905542388</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>23</v>
       </c>
@@ -6528,10 +6598,10 @@
         <v>72766.25</v>
       </c>
       <c r="J179">
-        <v>19.53445363126812</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10">
+        <v>19.534453631268121</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>23</v>
       </c>
@@ -6557,10 +6627,10 @@
         <v>42480.47</v>
       </c>
       <c r="J180">
-        <v>21.6572827976495</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10">
+        <v>21.657282797649501</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>23</v>
       </c>
@@ -6574,7 +6644,7 @@
         <v>4</v>
       </c>
       <c r="F181">
-        <v>325446.97</v>
+        <v>325446.96999999997</v>
       </c>
       <c r="G181">
         <v>4</v>
@@ -6583,13 +6653,13 @@
         <v>239197.3</v>
       </c>
       <c r="I181">
-        <v>86249.66999999998</v>
+        <v>86249.669999999984</v>
       </c>
       <c r="J181">
-        <v>36.05796135658721</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10">
+        <v>36.057961356587207</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>23</v>
       </c>
@@ -6609,16 +6679,16 @@
         <v>4</v>
       </c>
       <c r="H182">
-        <v>325446.97</v>
+        <v>325446.96999999997</v>
       </c>
       <c r="I182">
-        <v>18508.24000000005</v>
+        <v>18508.240000000049</v>
       </c>
       <c r="J182">
-        <v>5.687021759643376</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10">
+        <v>5.6870217596433763</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>23</v>
       </c>
@@ -6641,13 +6711,13 @@
         <v>347556.23</v>
       </c>
       <c r="I183">
-        <v>20846.85000000003</v>
+        <v>20846.850000000031</v>
       </c>
       <c r="J183">
-        <v>5.998122951212825</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10">
+        <v>5.9981229512128253</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>23</v>
       </c>
@@ -6670,13 +6740,13 @@
         <v>370526.08</v>
       </c>
       <c r="I184">
-        <v>72466.88</v>
+        <v>72466.880000000005</v>
       </c>
       <c r="J184">
-        <v>19.55783517316784</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10">
+        <v>19.557835173167842</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>23</v>
       </c>
@@ -6699,13 +6769,13 @@
         <v>195186.62</v>
       </c>
       <c r="I185">
-        <v>42183.77000000002</v>
+        <v>42183.770000000019</v>
       </c>
       <c r="J185">
         <v>21.61201930747098</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>23</v>
       </c>
@@ -6728,13 +6798,13 @@
         <v>237935.56</v>
       </c>
       <c r="I186">
-        <v>85766.48999999999</v>
+        <v>85766.489999999991</v>
       </c>
       <c r="J186">
-        <v>36.04610004490291</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10">
+        <v>36.046100044902907</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>23</v>
       </c>
@@ -6757,13 +6827,13 @@
         <v>323702.05</v>
       </c>
       <c r="I187">
-        <v>18409.01000000001</v>
+        <v>18409.010000000009</v>
       </c>
       <c r="J187">
-        <v>5.687022989196396</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10">
+        <v>5.6870229891963957</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>23</v>
       </c>
@@ -6786,13 +6856,13 @@
         <v>345672.12</v>
       </c>
       <c r="I188">
-        <v>20766.26000000001</v>
+        <v>20766.260000000009</v>
       </c>
       <c r="J188">
-        <v>6.007502138153349</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10">
+        <v>6.0075021381533489</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>23</v>
       </c>
@@ -6815,13 +6885,13 @@
         <v>368550.06</v>
       </c>
       <c r="I189">
-        <v>72167.51000000001</v>
+        <v>72167.510000000009</v>
       </c>
       <c r="J189">
-        <v>19.58146744027121</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10">
+        <v>19.581467440271211</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>23</v>
       </c>
@@ -6844,13 +6914,13 @@
         <v>194224.58</v>
       </c>
       <c r="I190">
-        <v>41887.07000000001</v>
+        <v>41887.070000000007</v>
       </c>
       <c r="J190">
-        <v>21.56630741587909</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10">
+        <v>21.566307415879091</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>23</v>
       </c>
@@ -6876,10 +6946,10 @@
         <v>85283.31</v>
       </c>
       <c r="J191">
-        <v>36.03411226471943</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10">
+        <v>36.034112264719433</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>23</v>
       </c>
@@ -6902,13 +6972,13 @@
         <v>321957.13</v>
       </c>
       <c r="I192">
-        <v>18309.77000000002</v>
+        <v>18309.770000000019</v>
       </c>
       <c r="J192">
-        <v>5.68702112607353</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10">
+        <v>5.6870211260735299</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>23</v>
       </c>
@@ -6931,13 +7001,13 @@
         <v>343788</v>
       </c>
       <c r="I193">
-        <v>20685.67999999999</v>
+        <v>20685.679999999989</v>
       </c>
       <c r="J193">
-        <v>6.016987213049901</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10">
+        <v>6.0169872130499007</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>23</v>
       </c>
@@ -6960,13 +7030,13 @@
         <v>366574.04</v>
       </c>
       <c r="I194">
-        <v>71868.14000000001</v>
+        <v>71868.140000000014</v>
       </c>
       <c r="J194">
-        <v>19.60535448718628</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10">
+        <v>19.605354487186279</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>23</v>
       </c>
@@ -6989,13 +7059,13 @@
         <v>193262.54</v>
       </c>
       <c r="I195">
-        <v>41590.37</v>
+        <v>41590.370000000003</v>
       </c>
       <c r="J195">
         <v>21.52014042659275</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>23</v>
       </c>
@@ -7009,7 +7079,7 @@
         <v>7</v>
       </c>
       <c r="F196">
-        <v>320212.21</v>
+        <v>320212.21000000002</v>
       </c>
       <c r="G196">
         <v>7</v>
@@ -7018,13 +7088,13 @@
         <v>235412.09</v>
       </c>
       <c r="I196">
-        <v>84800.12000000002</v>
+        <v>84800.120000000024</v>
       </c>
       <c r="J196">
-        <v>36.0219902044963</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10">
+        <v>36.021990204496298</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>23</v>
       </c>
@@ -7044,16 +7114,16 @@
         <v>7</v>
       </c>
       <c r="H197">
-        <v>320212.21</v>
+        <v>320212.21000000002</v>
       </c>
       <c r="I197">
-        <v>18210.53999999998</v>
+        <v>18210.539999999979</v>
       </c>
       <c r="J197">
-        <v>5.687022365574372</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10">
+        <v>5.6870223655743724</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>23</v>
       </c>
@@ -7076,13 +7146,13 @@
         <v>341903.89</v>
       </c>
       <c r="I198">
-        <v>20605.08999999997</v>
+        <v>20605.089999999971</v>
       </c>
       <c r="J198">
-        <v>6.026573725148307</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10">
+        <v>6.0265737251483067</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>23</v>
       </c>
@@ -7108,10 +7178,10 @@
         <v>71568.77999999997</v>
       </c>
       <c r="J199">
-        <v>19.62950373755467</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10">
+        <v>19.629503737554671</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>23</v>
       </c>
@@ -7134,13 +7204,13 @@
         <v>192300.51</v>
       </c>
       <c r="I200">
-        <v>41293.66</v>
+        <v>41293.660000000003</v>
       </c>
       <c r="J200">
-        <v>21.47350519247193</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10">
+        <v>21.473505192471929</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>23</v>
       </c>
@@ -7154,7 +7224,7 @@
         <v>8</v>
       </c>
       <c r="F201">
-        <v>318467.29</v>
+        <v>318467.28999999998</v>
       </c>
       <c r="G201">
         <v>8</v>
@@ -7163,13 +7233,13 @@
         <v>234150.35</v>
       </c>
       <c r="I201">
-        <v>84316.93999999997</v>
+        <v>84316.939999999973</v>
       </c>
       <c r="J201">
         <v>36.00974331236317</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>23</v>
       </c>
@@ -7189,16 +7259,16 @@
         <v>8</v>
       </c>
       <c r="H202">
-        <v>318467.29</v>
+        <v>318467.28999999998</v>
       </c>
       <c r="I202">
-        <v>18111.31</v>
+        <v>18111.310000000001</v>
       </c>
       <c r="J202">
-        <v>5.687023618657978</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10">
+        <v>5.6870236186579781</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>23</v>
       </c>
@@ -7221,13 +7291,13 @@
         <v>340019.77</v>
       </c>
       <c r="I203">
-        <v>20524.51000000001</v>
+        <v>20524.510000000009</v>
       </c>
       <c r="J203">
-        <v>6.03626959691197</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10">
+        <v>6.0362695969119704</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>23</v>
       </c>
@@ -7250,13 +7320,13 @@
         <v>362621.99</v>
       </c>
       <c r="I204">
-        <v>71269.41000000003</v>
+        <v>71269.410000000033</v>
       </c>
       <c r="J204">
         <v>19.65391288046267</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>23</v>
       </c>
@@ -7279,13 +7349,13 @@
         <v>191338.47</v>
       </c>
       <c r="I205">
-        <v>40996.95999999999</v>
+        <v>40996.959999999992</v>
       </c>
       <c r="J205">
-        <v>21.4264073502835</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10">
+        <v>21.426407350283501</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>23</v>
       </c>
@@ -7308,13 +7378,13 @@
         <v>232888.61</v>
       </c>
       <c r="I206">
-        <v>83833.76000000001</v>
+        <v>83833.760000000009</v>
       </c>
       <c r="J206">
-        <v>35.99736371821706</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10">
+        <v>35.997363718217059</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>23</v>
       </c>
@@ -7337,13 +7407,13 @@
         <v>316722.37</v>
       </c>
       <c r="I207">
-        <v>18012.07000000001</v>
+        <v>18012.070000000011</v>
       </c>
       <c r="J207">
-        <v>5.687021728209475</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10">
+        <v>5.6870217282094746</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -7366,13 +7436,13 @@
         <v>338135.66</v>
       </c>
       <c r="I208">
-        <v>20443.92000000004</v>
+        <v>20443.920000000038</v>
       </c>
       <c r="J208">
-        <v>6.046070384886363</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10">
+        <v>6.0460703848863631</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>23</v>
       </c>
@@ -7395,13 +7465,13 @@
         <v>360645.97</v>
       </c>
       <c r="I209">
-        <v>70970.04000000004</v>
+        <v>70970.040000000037</v>
       </c>
       <c r="J209">
-        <v>19.67858950427203</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10">
+        <v>19.678589504272029</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>23</v>
       </c>
@@ -7424,13 +7494,13 @@
         <v>190376.43</v>
       </c>
       <c r="I210">
-        <v>40700.26000000001</v>
+        <v>40700.260000000009</v>
       </c>
       <c r="J210">
-        <v>21.37883350370632</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10">
+        <v>21.378833503706321</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>23</v>
       </c>
@@ -7453,13 +7523,13 @@
         <v>231626.87</v>
       </c>
       <c r="I211">
-        <v>83350.58000000002</v>
+        <v>83350.580000000016</v>
       </c>
       <c r="J211">
-        <v>35.98484925345666</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10">
+        <v>35.984849253456659</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>23</v>
       </c>
@@ -7473,7 +7543,7 @@
         <v>10</v>
       </c>
       <c r="F212">
-        <v>332890.29</v>
+        <v>332890.28999999998</v>
       </c>
       <c r="G212">
         <v>10</v>
@@ -7482,13 +7552,13 @@
         <v>314977.45</v>
       </c>
       <c r="I212">
-        <v>17912.83999999997</v>
+        <v>17912.839999999971</v>
       </c>
       <c r="J212">
-        <v>5.687022991645899</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10">
+        <v>5.6870229916458994</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>23</v>
       </c>
@@ -7514,10 +7584,10 @@
         <v>20363.33000000002</v>
       </c>
       <c r="J213">
-        <v>6.055981005886818</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10">
+        <v>6.0559810058868182</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -7540,13 +7610,13 @@
         <v>358669.95</v>
       </c>
       <c r="I214">
-        <v>70670.66999999998</v>
+        <v>70670.669999999984</v>
       </c>
       <c r="J214">
         <v>19.70353802987956</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>23</v>
       </c>
@@ -7560,7 +7630,7 @@
         <v>11</v>
       </c>
       <c r="F215">
-        <v>189414.4</v>
+        <v>189414.39999999999</v>
       </c>
       <c r="G215">
         <v>11</v>
@@ -7575,7 +7645,7 @@
         <v>1.001233251813294</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>23</v>
       </c>
@@ -7595,16 +7665,16 @@
         <v>11</v>
       </c>
       <c r="H216">
-        <v>189414.4</v>
+        <v>189414.39999999999</v>
       </c>
       <c r="I216">
-        <v>40403.55000000002</v>
+        <v>40403.550000000017</v>
       </c>
       <c r="J216">
-        <v>21.33076999425599</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10">
+        <v>21.330769994255991</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>23</v>
       </c>
@@ -7618,7 +7688,7 @@
         <v>11</v>
       </c>
       <c r="F217">
-        <v>313232.53</v>
+        <v>313232.53000000003</v>
       </c>
       <c r="G217">
         <v>11</v>
@@ -7627,13 +7697,13 @@
         <v>230365.14</v>
       </c>
       <c r="I217">
-        <v>82867.39000000001</v>
+        <v>82867.390000000014</v>
       </c>
       <c r="J217">
-        <v>35.97219179950578</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10">
+        <v>35.972191799505779</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>23</v>
       </c>
@@ -7653,16 +7723,16 @@
         <v>11</v>
       </c>
       <c r="H218">
-        <v>313232.53</v>
+        <v>313232.53000000003</v>
       </c>
       <c r="I218">
         <v>17813.59999999998</v>
       </c>
       <c r="J218">
-        <v>5.68702107664232</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10">
+        <v>5.6870210766423197</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>23</v>
       </c>
@@ -7688,10 +7758,10 @@
         <v>20282.75</v>
       </c>
       <c r="J219">
-        <v>6.066006488730078</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10">
+        <v>6.0660064887300784</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>23</v>
       </c>
@@ -7714,13 +7784,13 @@
         <v>356693.93</v>
       </c>
       <c r="I220">
-        <v>70371.29999999999</v>
+        <v>70371.299999999988</v>
       </c>
       <c r="J220">
-        <v>19.72876297614596</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10">
+        <v>19.728762976145958</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>23</v>
       </c>
@@ -7743,13 +7813,13 @@
         <v>186532.06</v>
       </c>
       <c r="I221">
-        <v>1920.299999999988</v>
+        <v>1920.2999999999879</v>
       </c>
       <c r="J221">
-        <v>1.029474504275559</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10">
+        <v>1.0294745042755591</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>23</v>
       </c>
@@ -7772,13 +7842,13 @@
         <v>188452.36</v>
       </c>
       <c r="I222">
-        <v>40106.85000000001</v>
+        <v>40106.850000000013</v>
       </c>
       <c r="J222">
-        <v>21.28222220194006</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10">
+        <v>21.282222201940058</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>23</v>
       </c>
@@ -7801,13 +7871,13 @@
         <v>229103.4</v>
       </c>
       <c r="I223">
-        <v>82384.20999999999</v>
+        <v>82384.209999999992</v>
       </c>
       <c r="J223">
-        <v>35.95940086441318</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10">
+        <v>35.959400864413183</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>23</v>
       </c>
@@ -7833,10 +7903,10 @@
         <v>17714.37</v>
       </c>
       <c r="J224">
-        <v>5.687022350584024</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10">
+        <v>5.6870223505840238</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>23</v>
       </c>
@@ -7859,13 +7929,13 @@
         <v>332483.32</v>
       </c>
       <c r="I225">
-        <v>20202.15999999997</v>
+        <v>20202.159999999971</v>
       </c>
       <c r="J225">
-        <v>6.076142406181451</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10">
+        <v>6.0761424061814511</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>23</v>
       </c>
@@ -7891,10 +7961,10 @@
         <v>70071.94</v>
       </c>
       <c r="J226">
-        <v>19.75427233866687</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10">
+        <v>19.754272338666869</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>23</v>
       </c>
@@ -7920,10 +7990,10 @@
         <v>1962.920000000013</v>
       </c>
       <c r="J227">
-        <v>1.058021618370124</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10">
+        <v>1.0580216183701241</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>23</v>
       </c>
@@ -7946,13 +8016,13 @@
         <v>187490.32</v>
       </c>
       <c r="I228">
-        <v>39810.14999999999</v>
+        <v>39810.149999999987</v>
       </c>
       <c r="J228">
-        <v>21.23317619810985</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10">
+        <v>21.233176198109849</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>23</v>
       </c>
@@ -7981,7 +8051,7 @@
         <v>35.94646826221333</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>23</v>
       </c>
@@ -8007,10 +8077,10 @@
         <v>17615.14000000001</v>
       </c>
       <c r="J230">
-        <v>5.687023638879101</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10">
+        <v>5.6870236388791007</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>23</v>
       </c>
@@ -8039,7 +8109,7 @@
         <v>6.086397063271785</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>23</v>
       </c>
@@ -8062,13 +8132,13 @@
         <v>352741.88</v>
       </c>
       <c r="I232">
-        <v>69772.58000000002</v>
+        <v>69772.580000000016</v>
       </c>
       <c r="J232">
-        <v>19.78006694300093</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10">
+        <v>19.780066943000929</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>23</v>
       </c>
@@ -8097,7 +8167,7 @@
         <v>1.086885009403187</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>23</v>
       </c>
@@ -8120,13 +8190,13 @@
         <v>186528.29</v>
       </c>
       <c r="I234">
-        <v>39513.44</v>
+        <v>39513.440000000002</v>
       </c>
       <c r="J234">
-        <v>21.18361777722832</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10">
+        <v>21.183617777228321</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>23</v>
       </c>
@@ -8149,13 +8219,13 @@
         <v>226579.93</v>
       </c>
       <c r="I235">
-        <v>81417.84000000003</v>
+        <v>81417.840000000026</v>
       </c>
       <c r="J235">
-        <v>35.9333856268735</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10">
+        <v>35.933385626873502</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>23</v>
       </c>
@@ -8178,13 +8248,13 @@
         <v>307997.77</v>
       </c>
       <c r="I236">
-        <v>17515.89999999997</v>
+        <v>17515.899999999969</v>
       </c>
       <c r="J236">
-        <v>5.687021694994728</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10">
+        <v>5.6870216949947281</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>23</v>
       </c>
@@ -8204,16 +8274,16 @@
         <v>14</v>
       </c>
       <c r="H237">
-        <v>328715.09</v>
+        <v>328715.09000000003</v>
       </c>
       <c r="I237">
-        <v>20040.98999999999</v>
+        <v>20040.989999999991</v>
       </c>
       <c r="J237">
-        <v>6.096766047460733</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10">
+        <v>6.0967660474607328</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>23</v>
       </c>
@@ -8236,13 +8306,13 @@
         <v>350765.86</v>
       </c>
       <c r="I238">
-        <v>69473.21000000002</v>
+        <v>69473.210000000021</v>
       </c>
       <c r="J238">
-        <v>19.80614932137353</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10">
+        <v>19.806149321373528</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>23</v>
       </c>
@@ -8262,16 +8332,16 @@
         <v>15</v>
       </c>
       <c r="H239">
-        <v>183518.08</v>
+        <v>183518.07999999999</v>
       </c>
       <c r="I239">
-        <v>2048.170000000013</v>
+        <v>2048.1700000000128</v>
       </c>
       <c r="J239">
         <v>1.116058973589966</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>23</v>
       </c>
@@ -8294,13 +8364,13 @@
         <v>185566.25</v>
       </c>
       <c r="I240">
-        <v>39216.73999999999</v>
+        <v>39216.739999999991</v>
       </c>
       <c r="J240">
         <v>21.13355203330347</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>23</v>
       </c>
@@ -8314,7 +8384,7 @@
         <v>15</v>
       </c>
       <c r="F241">
-        <v>306252.85</v>
+        <v>306252.84999999998</v>
       </c>
       <c r="G241">
         <v>15</v>
@@ -8323,13 +8393,13 @@
         <v>225318.19</v>
       </c>
       <c r="I241">
-        <v>80934.65999999997</v>
+        <v>80934.659999999974</v>
       </c>
       <c r="J241">
-        <v>35.92016250441208</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10">
+        <v>35.920162504412083</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>23</v>
       </c>
@@ -8349,16 +8419,16 @@
         <v>15</v>
       </c>
       <c r="H242">
-        <v>306252.85</v>
+        <v>306252.84999999998</v>
       </c>
       <c r="I242">
-        <v>17416.67000000004</v>
+        <v>17416.670000000038</v>
       </c>
       <c r="J242">
         <v>5.687022994235007</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>23</v>
       </c>
@@ -8384,10 +8454,10 @@
         <v>19960.40000000002</v>
       </c>
       <c r="J243">
-        <v>6.107254581557728</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10">
+        <v>6.1072545815577284</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>23</v>
       </c>
@@ -8410,13 +8480,13 @@
         <v>348789.84</v>
       </c>
       <c r="I244">
-        <v>69173.83999999997</v>
+        <v>69173.839999999967</v>
       </c>
       <c r="J244">
         <v>19.83252723187119</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>23</v>
       </c>
@@ -8445,7 +8515,7 @@
         <v>1.145554118705342</v>
       </c>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>23</v>
       </c>
@@ -8468,13 +8538,13 @@
         <v>184604.21</v>
       </c>
       <c r="I246">
-        <v>38920.04000000001</v>
+        <v>38920.040000000008</v>
       </c>
       <c r="J246">
-        <v>21.08296446760342</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10">
+        <v>21.082964467603421</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>23</v>
       </c>
@@ -8497,13 +8567,13 @@
         <v>224056.45</v>
       </c>
       <c r="I247">
-        <v>80451.47999999998</v>
+        <v>80451.479999999981</v>
       </c>
       <c r="J247">
-        <v>35.90679045392354</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10">
+        <v>35.906790453923541</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>23</v>
       </c>
@@ -8526,13 +8596,13 @@
         <v>304507.93</v>
       </c>
       <c r="I248">
-        <v>17317.42999999999</v>
+        <v>17317.429999999989</v>
       </c>
       <c r="J248">
-        <v>5.687021024378574</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10">
+        <v>5.6870210243785744</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>23</v>
       </c>
@@ -8555,13 +8625,13 @@
         <v>324946.86</v>
       </c>
       <c r="I249">
-        <v>19879.82000000001</v>
+        <v>19879.820000000011</v>
       </c>
       <c r="J249">
-        <v>6.117868010787982</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10">
+        <v>6.1178680107879817</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>23</v>
       </c>
@@ -8584,13 +8654,13 @@
         <v>346813.82</v>
       </c>
       <c r="I250">
-        <v>68874.46999999997</v>
+        <v>68874.469999999972</v>
       </c>
       <c r="J250">
         <v>19.85920572600018</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>23</v>
       </c>
@@ -8613,13 +8683,13 @@
         <v>181508.75</v>
       </c>
       <c r="I251">
-        <v>2133.420000000013</v>
+        <v>2133.4200000000128</v>
       </c>
       <c r="J251">
         <v>1.175381352138678</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>23</v>
       </c>
@@ -8642,13 +8712,13 @@
         <v>183642.17</v>
       </c>
       <c r="I252">
-        <v>38623.34</v>
+        <v>38623.339999999997</v>
       </c>
       <c r="J252">
-        <v>21.03184687917813</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10">
+        <v>21.031846879178129</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>23</v>
       </c>
@@ -8671,13 +8741,13 @@
         <v>222794.72</v>
       </c>
       <c r="I253">
-        <v>79968.29000000001</v>
+        <v>79968.290000000008</v>
       </c>
       <c r="J253">
-        <v>35.89326084567893</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10">
+        <v>35.893260845678931</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>23</v>
       </c>
@@ -8691,7 +8761,7 @@
         <v>17</v>
       </c>
       <c r="F254">
-        <v>319981.21</v>
+        <v>319981.21000000002</v>
       </c>
       <c r="G254">
         <v>17</v>
@@ -8700,13 +8770,13 @@
         <v>302763.01</v>
       </c>
       <c r="I254">
-        <v>17218.20000000001</v>
+        <v>17218.200000000012</v>
       </c>
       <c r="J254">
-        <v>5.687022334729732</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10">
+        <v>5.6870223347297317</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>23</v>
       </c>
@@ -8729,13 +8799,13 @@
         <v>323062.75</v>
       </c>
       <c r="I255">
-        <v>19799.22999999998</v>
+        <v>19799.229999999981</v>
       </c>
       <c r="J255">
-        <v>6.128601951168924</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10">
+        <v>6.1286019511689238</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>23</v>
       </c>
@@ -8758,13 +8828,13 @@
         <v>344837.79</v>
       </c>
       <c r="I256">
-        <v>68575.11000000004</v>
+        <v>68575.110000000044</v>
       </c>
       <c r="J256">
         <v>19.88619344764971</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>23</v>
       </c>
@@ -8793,7 +8863,7 @@
         <v>1.205540550355406</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>23</v>
       </c>
@@ -8816,13 +8886,13 @@
         <v>182680.14</v>
       </c>
       <c r="I258">
-        <v>38326.62999999998</v>
+        <v>38326.629999999983</v>
       </c>
       <c r="J258">
-        <v>20.98018427180972</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10">
+        <v>20.980184271809719</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>23</v>
       </c>
@@ -8836,7 +8906,7 @@
         <v>18</v>
       </c>
       <c r="F259">
-        <v>301018.09</v>
+        <v>301018.09000000003</v>
       </c>
       <c r="G259">
         <v>18</v>
@@ -8845,13 +8915,13 @@
         <v>221532.98</v>
       </c>
       <c r="I259">
-        <v>79485.11000000002</v>
+        <v>79485.110000000015</v>
       </c>
       <c r="J259">
-        <v>35.87958325663295</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10">
+        <v>35.879583256632948</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>23</v>
       </c>
@@ -8871,16 +8941,16 @@
         <v>18</v>
       </c>
       <c r="H260">
-        <v>301018.09</v>
+        <v>301018.09000000003</v>
       </c>
       <c r="I260">
-        <v>17118.96999999997</v>
+        <v>17118.969999999968</v>
       </c>
       <c r="J260">
-        <v>5.687023660272368</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10">
+        <v>5.6870236602723683</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>23</v>
       </c>
@@ -8894,7 +8964,7 @@
         <v>18</v>
       </c>
       <c r="F261">
-        <v>340897.28</v>
+        <v>340897.28000000003</v>
       </c>
       <c r="G261">
         <v>18</v>
@@ -8909,7 +8979,7 @@
         <v>6.139465131911181</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>23</v>
       </c>
@@ -8932,13 +9002,13 @@
         <v>342861.77</v>
       </c>
       <c r="I262">
-        <v>68275.73999999999</v>
+        <v>68275.739999999991</v>
       </c>
       <c r="J262">
         <v>19.91348875087473</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>23</v>
       </c>
@@ -8961,13 +9031,13 @@
         <v>179499.43</v>
       </c>
       <c r="I263">
-        <v>40248.60000000001</v>
+        <v>40248.600000000013</v>
       </c>
       <c r="J263">
         <v>22.42268958737084</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>23</v>
       </c>
@@ -8990,13 +9060,13 @@
         <v>219748.03</v>
       </c>
       <c r="I264">
-        <v>79525.13999999998</v>
+        <v>79525.139999999985</v>
       </c>
       <c r="J264">
-        <v>36.1892391026213</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10">
+        <v>36.189239102621301</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>23</v>
       </c>
@@ -9010,7 +9080,7 @@
         <v>19</v>
       </c>
       <c r="F265">
-        <v>316292.9</v>
+        <v>316292.90000000002</v>
       </c>
       <c r="G265">
         <v>19</v>
@@ -9022,10 +9092,10 @@
         <v>17019.73000000004</v>
       </c>
       <c r="J265">
-        <v>5.687021659843427</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10">
+        <v>5.6870216598434267</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>23</v>
       </c>
@@ -9045,16 +9115,16 @@
         <v>19</v>
       </c>
       <c r="H266">
-        <v>316292.9</v>
+        <v>316292.90000000002</v>
       </c>
       <c r="I266">
-        <v>22639.67999999999</v>
+        <v>22639.679999999989</v>
       </c>
       <c r="J266">
-        <v>7.157821120866132</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10">
+        <v>7.1578211208661324</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>23</v>
       </c>
@@ -9077,13 +9147,13 @@
         <v>178494.77</v>
       </c>
       <c r="I267">
-        <v>39994.52000000002</v>
+        <v>39994.520000000019</v>
       </c>
       <c r="J267">
-        <v>22.40655006306348</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10">
+        <v>22.406550063063481</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>23</v>
       </c>
@@ -9106,13 +9176,13 @@
         <v>218489.29</v>
       </c>
       <c r="I268">
-        <v>79038.95999999999</v>
+        <v>79038.959999999992</v>
       </c>
       <c r="J268">
-        <v>36.17521023570537</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10">
+        <v>36.175210235705372</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>23</v>
       </c>
@@ -9138,10 +9208,10 @@
         <v>16920.5</v>
       </c>
       <c r="J269">
-        <v>5.687022996975918</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10">
+        <v>5.6870229969759176</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>23</v>
       </c>
@@ -9167,10 +9237,10 @@
         <v>22519.13</v>
       </c>
       <c r="J270">
-        <v>7.161462718487513</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10">
+        <v>7.1614627184875133</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>23</v>
       </c>
@@ -9196,10 +9266,10 @@
         <v>39740.44</v>
       </c>
       <c r="J271">
-        <v>22.39022782734204</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10">
+        <v>22.390227827342041</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>23</v>
       </c>
@@ -9222,13 +9292,13 @@
         <v>217230.55</v>
       </c>
       <c r="I272">
-        <v>78552.78000000003</v>
+        <v>78552.780000000028</v>
       </c>
       <c r="J272">
-        <v>36.1610187885636</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10">
+        <v>36.161018788563602</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>23</v>
       </c>
@@ -9242,7 +9312,7 @@
         <v>21</v>
       </c>
       <c r="F273">
-        <v>312604.59</v>
+        <v>312604.59000000003</v>
       </c>
       <c r="G273">
         <v>21</v>
@@ -9251,13 +9321,13 @@
         <v>295783.33</v>
       </c>
       <c r="I273">
-        <v>16821.26000000001</v>
+        <v>16821.260000000009</v>
       </c>
       <c r="J273">
-        <v>5.687020969031624</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10">
+        <v>5.6870209690316242</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>23</v>
       </c>
@@ -9277,16 +9347,16 @@
         <v>21</v>
       </c>
       <c r="H274">
-        <v>312604.59</v>
+        <v>312604.59000000003</v>
       </c>
       <c r="I274">
-        <v>22398.58999999997</v>
+        <v>22398.589999999971</v>
       </c>
       <c r="J274">
-        <v>7.165150710039148</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10">
+        <v>7.1651507100391481</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>23</v>
       </c>
@@ -9309,13 +9379,13 @@
         <v>176485.45</v>
       </c>
       <c r="I275">
-        <v>39486.35999999999</v>
+        <v>39486.359999999993</v>
       </c>
       <c r="J275">
-        <v>22.37371975990088</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10">
+        <v>22.373719759900879</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>23</v>
       </c>
@@ -9329,7 +9399,7 @@
         <v>22</v>
       </c>
       <c r="F276">
-        <v>294038.41</v>
+        <v>294038.40999999997</v>
       </c>
       <c r="G276">
         <v>22</v>
@@ -9338,13 +9408,13 @@
         <v>215971.81</v>
       </c>
       <c r="I276">
-        <v>78066.59999999998</v>
+        <v>78066.599999999977</v>
       </c>
       <c r="J276">
-        <v>36.14666191851612</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10">
+        <v>36.146661918516124</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>23</v>
       </c>
@@ -9364,16 +9434,16 @@
         <v>22</v>
       </c>
       <c r="H277">
-        <v>294038.41</v>
+        <v>294038.40999999997</v>
       </c>
       <c r="I277">
-        <v>16722.03000000003</v>
+        <v>16722.030000000032</v>
       </c>
       <c r="J277">
-        <v>5.687022317934595</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10">
+        <v>5.6870223179345949</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>23</v>
       </c>
@@ -9396,13 +9466,13 @@
         <v>310760.44</v>
       </c>
       <c r="I278">
-        <v>22278.03999999998</v>
+        <v>22278.039999999979</v>
       </c>
       <c r="J278">
-        <v>7.168879024627452</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10">
+        <v>7.1688790246274516</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>23</v>
       </c>
@@ -9428,10 +9498,10 @@
         <v>39232.28</v>
       </c>
       <c r="J279">
-        <v>22.35702266897704</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10">
+        <v>22.357022668977041</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>23</v>
       </c>
@@ -9454,13 +9524,13 @@
         <v>214713.07</v>
       </c>
       <c r="I280">
-        <v>77580.41999999998</v>
+        <v>77580.419999999984</v>
       </c>
       <c r="J280">
-        <v>36.13213671622318</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10">
+        <v>36.132136716223179</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>23</v>
       </c>
@@ -9474,7 +9544,7 @@
         <v>23</v>
       </c>
       <c r="F281">
-        <v>308916.29</v>
+        <v>308916.28999999998</v>
       </c>
       <c r="G281">
         <v>23</v>
@@ -9483,13 +9553,13 @@
         <v>292293.49</v>
       </c>
       <c r="I281">
-        <v>16622.79999999999</v>
+        <v>16622.799999999988</v>
       </c>
       <c r="J281">
-        <v>5.68702368294278</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10">
+        <v>5.6870236829427796</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>23</v>
       </c>
@@ -9503,22 +9573,22 @@
         <v>23</v>
       </c>
       <c r="F282">
-        <v>331073.78</v>
+        <v>331073.78000000003</v>
       </c>
       <c r="G282">
         <v>23</v>
       </c>
       <c r="H282">
-        <v>308916.29</v>
+        <v>308916.28999999998</v>
       </c>
       <c r="I282">
-        <v>22157.49000000005</v>
+        <v>22157.490000000049</v>
       </c>
       <c r="J282">
-        <v>7.172651853354853</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10">
+        <v>7.1726518533548527</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>23</v>
       </c>
@@ -9541,13 +9611,13 @@
         <v>174476.13</v>
       </c>
       <c r="I283">
-        <v>38978.19999999998</v>
+        <v>38978.199999999983</v>
       </c>
       <c r="J283">
-        <v>22.34013328929291</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10">
+        <v>22.340133289292911</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>23</v>
       </c>
@@ -9573,10 +9643,10 @@
         <v>77094.24000000002</v>
       </c>
       <c r="J284">
-        <v>36.11744020371947</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10">
+        <v>36.117440203719468</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>23</v>
       </c>
@@ -9599,13 +9669,13 @@
         <v>290548.57</v>
       </c>
       <c r="I285">
-        <v>16523.56</v>
+        <v>16523.560000000001</v>
       </c>
       <c r="J285">
-        <v>5.687021622581036</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10">
+        <v>5.6870216225810362</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>23</v>
       </c>
@@ -9628,13 +9698,13 @@
         <v>307072.13</v>
       </c>
       <c r="I286">
-        <v>22036.95000000001</v>
+        <v>22036.950000000012</v>
       </c>
       <c r="J286">
-        <v>7.176473488492756</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10">
+        <v>7.1764734884927561</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>23</v>
       </c>
@@ -9657,13 +9727,13 @@
         <v>173471.47</v>
       </c>
       <c r="I287">
-        <v>38724.12</v>
+        <v>38724.120000000003</v>
       </c>
       <c r="J287">
         <v>22.32304827992753</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>23</v>
       </c>
@@ -9677,7 +9747,7 @@
         <v>25</v>
       </c>
       <c r="F288">
-        <v>288803.65</v>
+        <v>288803.65000000002</v>
       </c>
       <c r="G288">
         <v>25</v>
@@ -9686,13 +9756,13 @@
         <v>212195.59</v>
       </c>
       <c r="I288">
-        <v>76608.06000000003</v>
+        <v>76608.060000000027</v>
       </c>
       <c r="J288">
-        <v>36.10256933237869</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10">
+        <v>36.102569332378692</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>23</v>
       </c>
@@ -9712,16 +9782,16 @@
         <v>25</v>
       </c>
       <c r="H289">
-        <v>288803.65</v>
+        <v>288803.65000000002</v>
       </c>
       <c r="I289">
-        <v>16424.32999999996</v>
+        <v>16424.329999999962</v>
       </c>
       <c r="J289">
-        <v>5.687022999882431</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10">
+        <v>5.6870229998824309</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>23</v>
       </c>
@@ -9750,7 +9820,7 @@
         <v>7.180337792098884</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>23</v>
       </c>
@@ -9773,13 +9843,13 @@
         <v>172466.81</v>
       </c>
       <c r="I291">
-        <v>38470.04000000001</v>
+        <v>38470.040000000008</v>
       </c>
       <c r="J291">
-        <v>22.30576422211323</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10">
+        <v>22.305764222113229</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>23</v>
       </c>
@@ -9802,13 +9872,13 @@
         <v>210936.85</v>
       </c>
       <c r="I292">
-        <v>76121.87999999998</v>
+        <v>76121.879999999976</v>
       </c>
       <c r="J292">
         <v>36.08752098080538</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>23</v>
       </c>
@@ -9831,13 +9901,13 @@
         <v>287058.73</v>
       </c>
       <c r="I293">
-        <v>16325.09000000003</v>
+        <v>16325.090000000029</v>
       </c>
       <c r="J293">
-        <v>5.687020910320348</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10">
+        <v>5.6870209103203484</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>23</v>
       </c>
@@ -9863,10 +9933,10 @@
         <v>21795.85999999999</v>
       </c>
       <c r="J294">
-        <v>7.184252607802217</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10">
+        <v>7.1842526078022173</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>23</v>
       </c>
@@ -9889,13 +9959,13 @@
         <v>171462.14</v>
       </c>
       <c r="I295">
-        <v>38215.96999999997</v>
+        <v>38215.969999999972</v>
       </c>
       <c r="J295">
         <v>22.28828474904137</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>23</v>
       </c>
@@ -9918,13 +9988,13 @@
         <v>209678.11</v>
       </c>
       <c r="I296">
-        <v>75635.70000000001</v>
+        <v>75635.700000000012</v>
       </c>
       <c r="J296">
-        <v>36.07229195265067</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10">
+        <v>36.072291952650673</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>23</v>
       </c>
@@ -9950,10 +10020,10 @@
         <v>16225.85999999999</v>
       </c>
       <c r="J297">
-        <v>5.687022300112282</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10">
+        <v>5.6870223001122824</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>23</v>
       </c>
@@ -9979,7 +10049,2872 @@
         <v>21675.31</v>
       </c>
       <c r="J298">
-        <v>7.188211753365652</v>
+        <v>7.1882117533656524</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9295A83B-D5FE-473A-9E97-31AB00241441}">
+  <dimension ref="A1:J96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2">
+        <v>402414.79</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>396445.66</v>
+      </c>
+      <c r="I2">
+        <v>5969.1300000000047</v>
+      </c>
+      <c r="J2">
+        <v>1.5056615829770981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3">
+        <v>443413.25</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>389643.37</v>
+      </c>
+      <c r="I3">
+        <v>53769.88</v>
+      </c>
+      <c r="J3">
+        <v>13.79976772092901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4">
+        <v>585730.24</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>569474.04</v>
+      </c>
+      <c r="I4">
+        <v>16256.19999999995</v>
+      </c>
+      <c r="J4">
+        <v>2.8545989559067442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5">
+        <v>578488.77</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>559929.35</v>
+      </c>
+      <c r="I5">
+        <v>18559.420000000038</v>
+      </c>
+      <c r="J5">
+        <v>3.3146003152004879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6">
+        <v>376239.82</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>372381.14</v>
+      </c>
+      <c r="I6">
+        <v>3858.679999999993</v>
+      </c>
+      <c r="J6">
+        <v>1.0362178922380421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7">
+        <v>380469.51</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>369953.89</v>
+      </c>
+      <c r="I7">
+        <v>10515.62</v>
+      </c>
+      <c r="J7">
+        <v>2.8424136856622848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8">
+        <v>796784</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>729430.85</v>
+      </c>
+      <c r="I8">
+        <v>67353.150000000023</v>
+      </c>
+      <c r="J8">
+        <v>9.2336579951341555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9">
+        <v>765558.64</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>715288.03</v>
+      </c>
+      <c r="I9">
+        <v>50270.609999999993</v>
+      </c>
+      <c r="J9">
+        <v>7.0280233824128144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10">
+        <v>775124</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>765558.64</v>
+      </c>
+      <c r="I10">
+        <v>9565.359999999986</v>
+      </c>
+      <c r="J10">
+        <v>1.249461439034897</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11">
+        <v>562278.40000000002</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>540046.6</v>
+      </c>
+      <c r="I11">
+        <v>22231.80000000005</v>
+      </c>
+      <c r="J11">
+        <v>4.1166447488050188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12">
+        <v>555657.11</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>534803.43000000005</v>
+      </c>
+      <c r="I12">
+        <v>20853.679999999931</v>
+      </c>
+      <c r="J12">
+        <v>3.8993168013151922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13">
+        <v>655555.56000000006</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>581124.88</v>
+      </c>
+      <c r="I13">
+        <v>74430.680000000051</v>
+      </c>
+      <c r="J13">
+        <v>12.80803534001161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14">
+        <v>636170.67000000004</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>564116.35</v>
+      </c>
+      <c r="I14">
+        <v>72054.320000000065</v>
+      </c>
+      <c r="J14">
+        <v>12.772953664611929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15">
+        <v>627293.87</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>555612.07999999996</v>
+      </c>
+      <c r="I15">
+        <v>71681.790000000037</v>
+      </c>
+      <c r="J15">
+        <v>12.90140955898584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16">
+        <v>820800</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>731437.03</v>
+      </c>
+      <c r="I16">
+        <v>89362.969999999972</v>
+      </c>
+      <c r="J16">
+        <v>12.217452266533449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17">
+        <v>786600</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>720627.61</v>
+      </c>
+      <c r="I17">
+        <v>65972.390000000014</v>
+      </c>
+      <c r="J17">
+        <v>9.1548518381081756</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18">
+        <v>755555.56</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>706215.06</v>
+      </c>
+      <c r="I18">
+        <v>49340.5</v>
+      </c>
+      <c r="J18">
+        <v>6.9866111323086191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19">
+        <v>398324.44</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>372633.3</v>
+      </c>
+      <c r="I19">
+        <v>25691.14000000001</v>
+      </c>
+      <c r="J19">
+        <v>6.8944831285878134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20">
+        <v>380422.22</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>365501.56</v>
+      </c>
+      <c r="I20">
+        <v>14920.659999999971</v>
+      </c>
+      <c r="J20">
+        <v>4.0822424943959126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21">
+        <v>362520</v>
+      </c>
+      <c r="G21">
+        <v>13</v>
+      </c>
+      <c r="H21">
+        <v>354803.96</v>
+      </c>
+      <c r="I21">
+        <v>7716.039999999979</v>
+      </c>
+      <c r="J21">
+        <v>2.174733337249104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22">
+        <v>688199.37</v>
+      </c>
+      <c r="G22">
+        <v>15</v>
+      </c>
+      <c r="H22">
+        <v>362520</v>
+      </c>
+      <c r="I22">
+        <v>325679.37</v>
+      </c>
+      <c r="J22">
+        <v>89.837628268785181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23">
+        <v>642661.91</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>623666.98</v>
+      </c>
+      <c r="I23">
+        <v>18994.930000000051</v>
+      </c>
+      <c r="J23">
+        <v>3.0456847338623012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24">
+        <v>614169.51</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>583545.68999999994</v>
+      </c>
+      <c r="I24">
+        <v>30623.820000000069</v>
+      </c>
+      <c r="J24">
+        <v>5.247887273402716</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25">
+        <v>633333.32999999996</v>
+      </c>
+      <c r="G25">
+        <v>11</v>
+      </c>
+      <c r="H25">
+        <v>607837.87</v>
+      </c>
+      <c r="I25">
+        <v>25495.459999999959</v>
+      </c>
+      <c r="J25">
+        <v>4.1944507340419506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26">
+        <v>691802.51</v>
+      </c>
+      <c r="G26">
+        <v>15</v>
+      </c>
+      <c r="H26">
+        <v>633164.43999999994</v>
+      </c>
+      <c r="I26">
+        <v>58638.070000000072</v>
+      </c>
+      <c r="J26">
+        <v>9.2611123265229605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27">
+        <v>513022.66</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>507132.8</v>
+      </c>
+      <c r="I27">
+        <v>5889.859999999986</v>
+      </c>
+      <c r="J27">
+        <v>1.161403876854344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28">
+        <v>530100</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>513022.66</v>
+      </c>
+      <c r="I28">
+        <v>17077.340000000029</v>
+      </c>
+      <c r="J28">
+        <v>3.328769142478039</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29">
+        <v>549000</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>501381.24</v>
+      </c>
+      <c r="I29">
+        <v>47618.760000000009</v>
+      </c>
+      <c r="J29">
+        <v>9.4975153039232207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30">
+        <v>470000</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>405685.92</v>
+      </c>
+      <c r="I30">
+        <v>64314.080000000024</v>
+      </c>
+      <c r="J30">
+        <v>15.85317035405124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31">
+        <v>422148.76</v>
+      </c>
+      <c r="G31">
+        <v>12</v>
+      </c>
+      <c r="H31">
+        <v>397193.73</v>
+      </c>
+      <c r="I31">
+        <v>24955.030000000032</v>
+      </c>
+      <c r="J31">
+        <v>6.2828358342917516</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32">
+        <v>411000</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>386787.74</v>
+      </c>
+      <c r="I32">
+        <v>24212.260000000009</v>
+      </c>
+      <c r="J32">
+        <v>6.2598312966176257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33">
+        <v>435135.89</v>
+      </c>
+      <c r="G33">
+        <v>13</v>
+      </c>
+      <c r="H33">
+        <v>393268.9</v>
+      </c>
+      <c r="I33">
+        <v>41866.989999999991</v>
+      </c>
+      <c r="J33">
+        <v>10.645893941778761</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34">
+        <v>500818.89</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>438806.06</v>
+      </c>
+      <c r="I34">
+        <v>62012.830000000024</v>
+      </c>
+      <c r="J34">
+        <v>14.132172650487099</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35">
+        <v>495000</v>
+      </c>
+      <c r="G35">
+        <v>11</v>
+      </c>
+      <c r="H35">
+        <v>455360.99</v>
+      </c>
+      <c r="I35">
+        <v>39639.010000000009</v>
+      </c>
+      <c r="J35">
+        <v>8.7049639451987328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36">
+        <v>383333.69</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>342581.77</v>
+      </c>
+      <c r="I36">
+        <v>40751.919999999976</v>
+      </c>
+      <c r="J36">
+        <v>11.89553081006032</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37">
+        <v>336669.13</v>
+      </c>
+      <c r="G37">
+        <v>14</v>
+      </c>
+      <c r="H37">
+        <v>333333.74</v>
+      </c>
+      <c r="I37">
+        <v>3335.390000000014</v>
+      </c>
+      <c r="J37">
+        <v>1.000615779248754</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38">
+        <v>390119.79</v>
+      </c>
+      <c r="G38">
+        <v>13</v>
+      </c>
+      <c r="H38">
+        <v>327901.11</v>
+      </c>
+      <c r="I38">
+        <v>62218.679999999993</v>
+      </c>
+      <c r="J38">
+        <v>18.97483055180874</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39">
+        <v>429082.49</v>
+      </c>
+      <c r="G39">
+        <v>11</v>
+      </c>
+      <c r="H39">
+        <v>420603.95</v>
+      </c>
+      <c r="I39">
+        <v>8478.539999999979</v>
+      </c>
+      <c r="J39">
+        <v>2.015801325688924</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40">
+        <v>529935.32999999996</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>493083.36</v>
+      </c>
+      <c r="I40">
+        <v>36851.969999999972</v>
+      </c>
+      <c r="J40">
+        <v>7.4737809039023286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41">
+        <v>387954.67</v>
+      </c>
+      <c r="G41">
+        <v>9</v>
+      </c>
+      <c r="H41">
+        <v>354432.09</v>
+      </c>
+      <c r="I41">
+        <v>33522.579999999958</v>
+      </c>
+      <c r="J41">
+        <v>9.458110861237186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42">
+        <v>384551.56</v>
+      </c>
+      <c r="G42">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>351195.27</v>
+      </c>
+      <c r="I42">
+        <v>33356.289999999979</v>
+      </c>
+      <c r="J42">
+        <v>9.4979325888984718</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43">
+        <v>717095.89</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>654279.93999999994</v>
+      </c>
+      <c r="I43">
+        <v>62815.95000000007</v>
+      </c>
+      <c r="J43">
+        <v>9.6007757780255449</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44">
+        <v>548010.67000000004</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <v>485941.06</v>
+      </c>
+      <c r="I44">
+        <v>62069.610000000037</v>
+      </c>
+      <c r="J44">
+        <v>12.7730737550764</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45">
+        <v>455408.89</v>
+      </c>
+      <c r="G45">
+        <v>8</v>
+      </c>
+      <c r="H45">
+        <v>411498.16</v>
+      </c>
+      <c r="I45">
+        <v>43910.73000000004</v>
+      </c>
+      <c r="J45">
+        <v>10.6709420037261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46">
+        <v>448577.76</v>
+      </c>
+      <c r="G46">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>405000.82</v>
+      </c>
+      <c r="I46">
+        <v>43576.94</v>
+      </c>
+      <c r="J46">
+        <v>10.759716486499951</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47">
+        <v>581520.32999999996</v>
+      </c>
+      <c r="G47">
+        <v>7</v>
+      </c>
+      <c r="H47">
+        <v>516231.46</v>
+      </c>
+      <c r="I47">
+        <v>65288.869999999937</v>
+      </c>
+      <c r="J47">
+        <v>12.6472086765111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>151</v>
+      </c>
+      <c r="F48">
+        <v>575556.02</v>
+      </c>
+      <c r="G48">
+        <v>9</v>
+      </c>
+      <c r="H48">
+        <v>510558.59</v>
+      </c>
+      <c r="I48">
+        <v>64997.429999999993</v>
+      </c>
+      <c r="J48">
+        <v>12.730650560594819</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49">
+        <v>507269.6</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>428873.39</v>
+      </c>
+      <c r="I49">
+        <v>78396.209999999963</v>
+      </c>
+      <c r="J49">
+        <v>18.279569641753699</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>153</v>
+      </c>
+      <c r="F50">
+        <v>490115.56</v>
+      </c>
+      <c r="G50">
+        <v>12</v>
+      </c>
+      <c r="H50">
+        <v>412557.55</v>
+      </c>
+      <c r="I50">
+        <v>77558.010000000009</v>
+      </c>
+      <c r="J50">
+        <v>18.799319028339202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>154</v>
+      </c>
+      <c r="F51">
+        <v>473896.73</v>
+      </c>
+      <c r="G51">
+        <v>9</v>
+      </c>
+      <c r="H51">
+        <v>419654.87</v>
+      </c>
+      <c r="I51">
+        <v>54241.859999999993</v>
+      </c>
+      <c r="J51">
+        <v>12.92534982377304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>155</v>
+      </c>
+      <c r="F52">
+        <v>664692.62</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>584232.85</v>
+      </c>
+      <c r="I52">
+        <v>80459.770000000019</v>
+      </c>
+      <c r="J52">
+        <v>13.771866816458539</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53">
+        <v>649855.73</v>
+      </c>
+      <c r="G53">
+        <v>8</v>
+      </c>
+      <c r="H53">
+        <v>570120.93999999994</v>
+      </c>
+      <c r="I53">
+        <v>79734.790000000037</v>
+      </c>
+      <c r="J53">
+        <v>13.98559224995315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>157</v>
+      </c>
+      <c r="F54">
+        <v>647153.51</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+      <c r="H54">
+        <v>577400.98</v>
+      </c>
+      <c r="I54">
+        <v>69752.530000000028</v>
+      </c>
+      <c r="J54">
+        <v>12.08043152264827</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>158</v>
+      </c>
+      <c r="F55">
+        <v>641426.49</v>
+      </c>
+      <c r="G55">
+        <v>8</v>
+      </c>
+      <c r="H55">
+        <v>571953.80000000005</v>
+      </c>
+      <c r="I55">
+        <v>69472.689999999944</v>
+      </c>
+      <c r="J55">
+        <v>12.146556242829391</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>133</v>
+      </c>
+      <c r="F56">
+        <v>411358.44</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <v>375062.11</v>
+      </c>
+      <c r="I56">
+        <v>36296.330000000024</v>
+      </c>
+      <c r="J56">
+        <v>9.6774184947661119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57">
+        <v>396839.91</v>
+      </c>
+      <c r="G57">
+        <v>8</v>
+      </c>
+      <c r="H57">
+        <v>367802.84</v>
+      </c>
+      <c r="I57">
+        <v>29037.069999999949</v>
+      </c>
+      <c r="J57">
+        <v>7.8947378437860749</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58">
+        <v>387160.89</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58">
+        <v>362963.33</v>
+      </c>
+      <c r="I58">
+        <v>24197.56</v>
+      </c>
+      <c r="J58">
+        <v>6.666667952379651</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59">
+        <v>479116.67</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+      <c r="H59">
+        <v>473480</v>
+      </c>
+      <c r="I59">
+        <v>5636.6699999999837</v>
+      </c>
+      <c r="J59">
+        <v>1.1904768944833961</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60">
+        <v>473480</v>
+      </c>
+      <c r="G60">
+        <v>6</v>
+      </c>
+      <c r="H60">
+        <v>460521.6</v>
+      </c>
+      <c r="I60">
+        <v>12958.40000000002</v>
+      </c>
+      <c r="J60">
+        <v>2.8138528138528192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61">
+        <v>16</v>
+      </c>
+      <c r="E61" t="s">
+        <v>159</v>
+      </c>
+      <c r="F61">
+        <v>448115</v>
+      </c>
+      <c r="G61">
+        <v>15</v>
+      </c>
+      <c r="H61">
+        <v>442478.33</v>
+      </c>
+      <c r="I61">
+        <v>5636.6699999999837</v>
+      </c>
+      <c r="J61">
+        <v>1.2738861132476209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>129</v>
+      </c>
+      <c r="F62">
+        <v>295360</v>
+      </c>
+      <c r="G62">
+        <v>15</v>
+      </c>
+      <c r="H62">
+        <v>270222.21999999997</v>
+      </c>
+      <c r="I62">
+        <v>25137.780000000032</v>
+      </c>
+      <c r="J62">
+        <v>9.3026324778177134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63">
+        <v>382353.89</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <v>332160.28999999998</v>
+      </c>
+      <c r="I63">
+        <v>50193.600000000028</v>
+      </c>
+      <c r="J63">
+        <v>15.111258483065519</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F64">
+        <v>376153.55</v>
+      </c>
+      <c r="G64">
+        <v>8</v>
+      </c>
+      <c r="H64">
+        <v>336183.33</v>
+      </c>
+      <c r="I64">
+        <v>39970.219999999972</v>
+      </c>
+      <c r="J64">
+        <v>11.88941164929266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>136</v>
+      </c>
+      <c r="F65">
+        <v>357552.56</v>
+      </c>
+      <c r="G65">
+        <v>12</v>
+      </c>
+      <c r="H65">
+        <v>322222.21999999997</v>
+      </c>
+      <c r="I65">
+        <v>35330.340000000033</v>
+      </c>
+      <c r="J65">
+        <v>10.96458835147993</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
+        <v>161</v>
+      </c>
+      <c r="F66">
+        <v>363752.89</v>
+      </c>
+      <c r="G66">
+        <v>13</v>
+      </c>
+      <c r="H66">
+        <v>357552.56</v>
+      </c>
+      <c r="I66">
+        <v>6200.3300000000163</v>
+      </c>
+      <c r="J66">
+        <v>1.7341030924236751</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67">
+        <v>551776.89</v>
+      </c>
+      <c r="G67">
+        <v>5</v>
+      </c>
+      <c r="H67">
+        <v>490122.3</v>
+      </c>
+      <c r="I67">
+        <v>61654.590000000033</v>
+      </c>
+      <c r="J67">
+        <v>12.579429664799999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>162</v>
+      </c>
+      <c r="F68">
+        <v>539846.57999999996</v>
+      </c>
+      <c r="G68">
+        <v>9</v>
+      </c>
+      <c r="H68">
+        <v>496938.89</v>
+      </c>
+      <c r="I68">
+        <v>42907.689999999937</v>
+      </c>
+      <c r="J68">
+        <v>8.6343996944976347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
+        <v>163</v>
+      </c>
+      <c r="F69">
+        <v>500793.56</v>
+      </c>
+      <c r="G69">
+        <v>9</v>
+      </c>
+      <c r="H69">
+        <v>474870.12</v>
+      </c>
+      <c r="I69">
+        <v>25923.439999999999</v>
+      </c>
+      <c r="J69">
+        <v>5.4590589949100199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>164</v>
+      </c>
+      <c r="F70">
+        <v>486064.33</v>
+      </c>
+      <c r="G70">
+        <v>11</v>
+      </c>
+      <c r="H70">
+        <v>474280.96000000002</v>
+      </c>
+      <c r="I70">
+        <v>11783.37</v>
+      </c>
+      <c r="J70">
+        <v>2.4844703864983311</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71">
+        <v>17</v>
+      </c>
+      <c r="E71" t="s">
+        <v>165</v>
+      </c>
+      <c r="F71">
+        <v>471335.11</v>
+      </c>
+      <c r="G71">
+        <v>16</v>
+      </c>
+      <c r="H71">
+        <v>459551.73</v>
+      </c>
+      <c r="I71">
+        <v>11783.38</v>
+      </c>
+      <c r="J71">
+        <v>2.564103066264162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>89</v>
+      </c>
+      <c r="F72">
+        <v>407015.56</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+      <c r="H72">
+        <v>394555.56</v>
+      </c>
+      <c r="I72">
+        <v>12460</v>
+      </c>
+      <c r="J72">
+        <v>3.1579836309999032</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73">
+        <v>411111.11</v>
+      </c>
+      <c r="G73">
+        <v>12</v>
+      </c>
+      <c r="H73">
+        <v>372222.22</v>
+      </c>
+      <c r="I73">
+        <v>38888.890000000007</v>
+      </c>
+      <c r="J73">
+        <v>10.44776155491201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74">
+        <v>17</v>
+      </c>
+      <c r="E74" t="s">
+        <v>166</v>
+      </c>
+      <c r="F74">
+        <v>374444.44</v>
+      </c>
+      <c r="G74">
+        <v>16</v>
+      </c>
+      <c r="H74">
+        <v>358024.44</v>
+      </c>
+      <c r="I74">
+        <v>16420</v>
+      </c>
+      <c r="J74">
+        <v>4.586279081953176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>108</v>
+      </c>
+      <c r="F75">
+        <v>596666.67000000004</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+      <c r="H75">
+        <v>578032.22</v>
+      </c>
+      <c r="I75">
+        <v>18634.45000000007</v>
+      </c>
+      <c r="J75">
+        <v>3.2237735813412041</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76">
+        <v>9</v>
+      </c>
+      <c r="E76" t="s">
+        <v>110</v>
+      </c>
+      <c r="F76">
+        <v>569355.56000000006</v>
+      </c>
+      <c r="G76">
+        <v>8</v>
+      </c>
+      <c r="H76">
+        <v>524300</v>
+      </c>
+      <c r="I76">
+        <v>45055.560000000063</v>
+      </c>
+      <c r="J76">
+        <v>8.5934693877551123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77">
+        <v>11</v>
+      </c>
+      <c r="E77" t="s">
+        <v>92</v>
+      </c>
+      <c r="F77">
+        <v>558888.89</v>
+      </c>
+      <c r="G77">
+        <v>10</v>
+      </c>
+      <c r="H77">
+        <v>539017.78</v>
+      </c>
+      <c r="I77">
+        <v>19871.10999999999</v>
+      </c>
+      <c r="J77">
+        <v>3.686540729695408</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
+        <v>111</v>
+      </c>
+      <c r="F78">
+        <v>598888.89</v>
+      </c>
+      <c r="G78">
+        <v>12</v>
+      </c>
+      <c r="H78">
+        <v>507411.11</v>
+      </c>
+      <c r="I78">
+        <v>91477.780000000028</v>
+      </c>
+      <c r="J78">
+        <v>18.028336037025291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" t="s">
+        <v>64</v>
+      </c>
+      <c r="D79">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>93</v>
+      </c>
+      <c r="F79">
+        <v>442222.22</v>
+      </c>
+      <c r="G79">
+        <v>7</v>
+      </c>
+      <c r="H79">
+        <v>401000</v>
+      </c>
+      <c r="I79">
+        <v>41222.219999999972</v>
+      </c>
+      <c r="J79">
+        <v>10.279855361596001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>95</v>
+      </c>
+      <c r="F80">
+        <v>434115.56</v>
+      </c>
+      <c r="G80">
+        <v>10</v>
+      </c>
+      <c r="H80">
+        <v>417854.44</v>
+      </c>
+      <c r="I80">
+        <v>16261.12</v>
+      </c>
+      <c r="J80">
+        <v>3.8915752576423488</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" t="s">
+        <v>65</v>
+      </c>
+      <c r="D81">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
+        <v>130</v>
+      </c>
+      <c r="F81">
+        <v>521210</v>
+      </c>
+      <c r="G81">
+        <v>6</v>
+      </c>
+      <c r="H81">
+        <v>453000</v>
+      </c>
+      <c r="I81">
+        <v>68210</v>
+      </c>
+      <c r="J81">
+        <v>15.057395143487859</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82">
+        <v>10</v>
+      </c>
+      <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82">
+        <v>454543.33</v>
+      </c>
+      <c r="G82">
+        <v>9</v>
+      </c>
+      <c r="H82">
+        <v>442000</v>
+      </c>
+      <c r="I82">
+        <v>12543.33000000002</v>
+      </c>
+      <c r="J82">
+        <v>2.837857466063352</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" t="s">
+        <v>65</v>
+      </c>
+      <c r="D83">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>73</v>
+      </c>
+      <c r="F83">
+        <v>466666.67</v>
+      </c>
+      <c r="G83">
+        <v>10</v>
+      </c>
+      <c r="H83">
+        <v>454543.33</v>
+      </c>
+      <c r="I83">
+        <v>12123.339999999969</v>
+      </c>
+      <c r="J83">
+        <v>2.6671472662463152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" t="s">
+        <v>65</v>
+      </c>
+      <c r="D84">
+        <v>14</v>
+      </c>
+      <c r="E84" t="s">
+        <v>74</v>
+      </c>
+      <c r="F84">
+        <v>506435.56</v>
+      </c>
+      <c r="G84">
+        <v>13</v>
+      </c>
+      <c r="H84">
+        <v>460777.78</v>
+      </c>
+      <c r="I84">
+        <v>45657.77999999997</v>
+      </c>
+      <c r="J84">
+        <v>9.9088502054070329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" t="s">
+        <v>66</v>
+      </c>
+      <c r="D85">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>167</v>
+      </c>
+      <c r="F85">
+        <v>391981.11</v>
+      </c>
+      <c r="G85">
+        <v>8</v>
+      </c>
+      <c r="H85">
+        <v>386324.44</v>
+      </c>
+      <c r="I85">
+        <v>5656.6699999999837</v>
+      </c>
+      <c r="J85">
+        <v>1.4642278391706161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" t="s">
+        <v>66</v>
+      </c>
+      <c r="D86">
+        <v>12</v>
+      </c>
+      <c r="E86" t="s">
+        <v>116</v>
+      </c>
+      <c r="F86">
+        <v>377766.67</v>
+      </c>
+      <c r="G86">
+        <v>11</v>
+      </c>
+      <c r="H86">
+        <v>356820</v>
+      </c>
+      <c r="I86">
+        <v>20946.66999999998</v>
+      </c>
+      <c r="J86">
+        <v>5.8703744184742961</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" t="s">
+        <v>66</v>
+      </c>
+      <c r="D87">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s">
+        <v>117</v>
+      </c>
+      <c r="F87">
+        <v>376500</v>
+      </c>
+      <c r="G87">
+        <v>13</v>
+      </c>
+      <c r="H87">
+        <v>356820</v>
+      </c>
+      <c r="I87">
+        <v>19680</v>
+      </c>
+      <c r="J87">
+        <v>5.5153859088616111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D88">
+        <v>15</v>
+      </c>
+      <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88">
+        <v>382515.56</v>
+      </c>
+      <c r="G88">
+        <v>14</v>
+      </c>
+      <c r="H88">
+        <v>376500</v>
+      </c>
+      <c r="I88">
+        <v>6015.5599999999977</v>
+      </c>
+      <c r="J88">
+        <v>1.597758300132802</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" t="s">
+        <v>67</v>
+      </c>
+      <c r="D89">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s">
+        <v>169</v>
+      </c>
+      <c r="F89">
+        <v>354105.56</v>
+      </c>
+      <c r="G89">
+        <v>8</v>
+      </c>
+      <c r="H89">
+        <v>350000</v>
+      </c>
+      <c r="I89">
+        <v>4105.5599999999977</v>
+      </c>
+      <c r="J89">
+        <v>1.1730171428571421</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" t="s">
+        <v>67</v>
+      </c>
+      <c r="D90">
+        <v>12</v>
+      </c>
+      <c r="E90" t="s">
+        <v>80</v>
+      </c>
+      <c r="F90">
+        <v>354046.67</v>
+      </c>
+      <c r="G90">
+        <v>11</v>
+      </c>
+      <c r="H90">
+        <v>316666.67</v>
+      </c>
+      <c r="I90">
+        <v>37380</v>
+      </c>
+      <c r="J90">
+        <v>11.80421040206094</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" t="s">
+        <v>67</v>
+      </c>
+      <c r="D91">
+        <v>16</v>
+      </c>
+      <c r="E91" t="s">
+        <v>159</v>
+      </c>
+      <c r="F91">
+        <v>330444.44</v>
+      </c>
+      <c r="G91">
+        <v>15</v>
+      </c>
+      <c r="H91">
+        <v>321195.56</v>
+      </c>
+      <c r="I91">
+        <v>9248.8800000000047</v>
+      </c>
+      <c r="J91">
+        <v>2.8795167654247789</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92" t="s">
+        <v>170</v>
+      </c>
+      <c r="F92">
+        <v>529000</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>498000</v>
+      </c>
+      <c r="I92">
+        <v>31000</v>
+      </c>
+      <c r="J92">
+        <v>6.2248995983935744</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>171</v>
+      </c>
+      <c r="F93">
+        <v>526696.67000000004</v>
+      </c>
+      <c r="G93">
+        <v>6</v>
+      </c>
+      <c r="H93">
+        <v>516666.67</v>
+      </c>
+      <c r="I93">
+        <v>10030.00000000006</v>
+      </c>
+      <c r="J93">
+        <v>1.9412903100562029</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94">
+        <v>13</v>
+      </c>
+      <c r="E94" t="s">
+        <v>172</v>
+      </c>
+      <c r="F94">
+        <v>527841.11</v>
+      </c>
+      <c r="G94">
+        <v>12</v>
+      </c>
+      <c r="H94">
+        <v>450777.78</v>
+      </c>
+      <c r="I94">
+        <v>77063.329999999958</v>
+      </c>
+      <c r="J94">
+        <v>17.095636346582999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95">
+        <v>15</v>
+      </c>
+      <c r="E95" t="s">
+        <v>173</v>
+      </c>
+      <c r="F95">
+        <v>499255.56</v>
+      </c>
+      <c r="G95">
+        <v>14</v>
+      </c>
+      <c r="H95">
+        <v>475700</v>
+      </c>
+      <c r="I95">
+        <v>23555.56</v>
+      </c>
+      <c r="J95">
+        <v>4.951767920958587</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96">
+        <v>16</v>
+      </c>
+      <c r="E96" t="s">
+        <v>174</v>
+      </c>
+      <c r="F96">
+        <v>561666.67000000004</v>
+      </c>
+      <c r="G96">
+        <v>15</v>
+      </c>
+      <c r="H96">
+        <v>499255.56</v>
+      </c>
+      <c r="I96">
+        <v>62411.110000000037</v>
+      </c>
+      <c r="J96">
+        <v>12.50083424208637</v>
       </c>
     </row>
   </sheetData>
